--- a/fidesctl/src/fidesctl/templates/fides_datamap_template.xlsx
+++ b/fidesctl/src/fidesctl/templates/fides_datamap_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Art30 mock (WIP)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Controller</t>
   </si>
@@ -23,12 +23,6 @@
   </si>
   <si>
     <t>Representative (if applicable)</t>
-  </si>
-  <si>
-    <t>Empty Column</t>
-  </si>
-  <si>
-    <t>Here</t>
   </si>
   <si>
     <t>Fides annotation</t>
@@ -167,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -206,17 +200,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -241,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -268,27 +251,18 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -300,14 +274,8 @@
     <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -666,12 +634,12 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -697,15 +665,11 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="K7" s="10"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="13"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -718,117 +682,117 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
+      <c r="V8" s="12"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="K9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="L9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="M9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="O9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="P9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="Q9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="R9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="S9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="T9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="U9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="V9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="W9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -847,8 +811,8 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -872,8 +836,8 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -897,8 +861,8 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -922,8 +886,8 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -947,8 +911,8 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -972,8 +936,8 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -997,8 +961,8 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1022,8 +986,8 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1047,8 +1011,8 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1072,8 +1036,8 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1097,8 +1061,8 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1122,8 +1086,8 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1147,8 +1111,8 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1172,8 +1136,8 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1197,8 +1161,8 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1222,8 +1186,8 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1247,8 +1211,8 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1272,8 +1236,8 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1297,8 +1261,8 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1322,8 +1286,8 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1347,8 +1311,8 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1372,8 +1336,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1397,8 +1361,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1422,8 +1386,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1447,8 +1411,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1472,8 +1436,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1497,8 +1461,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1522,8 +1486,8 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1547,8 +1511,8 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1572,8 +1536,8 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1597,8 +1561,8 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -1622,8 +1586,8 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -1647,8 +1611,8 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1672,8 +1636,8 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -1697,8 +1661,8 @@
       <c r="W44" s="9"/>
     </row>
     <row r="45">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -1722,8 +1686,8 @@
       <c r="W45" s="9"/>
     </row>
     <row r="46">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1747,8 +1711,8 @@
       <c r="W46" s="9"/>
     </row>
     <row r="47">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -1772,8 +1736,8 @@
       <c r="W47" s="9"/>
     </row>
     <row r="48">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1797,8 +1761,8 @@
       <c r="W48" s="9"/>
     </row>
     <row r="49">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -1822,8 +1786,8 @@
       <c r="W49" s="9"/>
     </row>
     <row r="50">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -1847,8 +1811,8 @@
       <c r="W50" s="9"/>
     </row>
     <row r="51">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -1872,8 +1836,8 @@
       <c r="W51" s="9"/>
     </row>
     <row r="52">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -1897,8 +1861,8 @@
       <c r="W52" s="9"/>
     </row>
     <row r="53">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -1922,8 +1886,8 @@
       <c r="W53" s="9"/>
     </row>
     <row r="54">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -1947,8 +1911,8 @@
       <c r="W54" s="9"/>
     </row>
     <row r="55">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -1972,8 +1936,8 @@
       <c r="W55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -1997,8 +1961,8 @@
       <c r="W56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -2022,8 +1986,8 @@
       <c r="W57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -2047,8 +2011,8 @@
       <c r="W58" s="9"/>
     </row>
     <row r="59">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -2072,8 +2036,8 @@
       <c r="W59" s="9"/>
     </row>
     <row r="60">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -2097,8 +2061,8 @@
       <c r="W60" s="9"/>
     </row>
     <row r="61">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -2122,8 +2086,8 @@
       <c r="W61" s="9"/>
     </row>
     <row r="62">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -2147,8 +2111,8 @@
       <c r="W62" s="9"/>
     </row>
     <row r="63">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -2172,8 +2136,8 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -2197,8 +2161,8 @@
       <c r="W64" s="9"/>
     </row>
     <row r="65">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -2222,8 +2186,8 @@
       <c r="W65" s="9"/>
     </row>
     <row r="66">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -2247,8 +2211,8 @@
       <c r="W66" s="9"/>
     </row>
     <row r="67">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -2272,8 +2236,8 @@
       <c r="W67" s="9"/>
     </row>
     <row r="68">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -2297,8 +2261,8 @@
       <c r="W68" s="9"/>
     </row>
     <row r="69">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -2322,8 +2286,8 @@
       <c r="W69" s="9"/>
     </row>
     <row r="70">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -2347,8 +2311,8 @@
       <c r="W70" s="9"/>
     </row>
     <row r="71">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -2372,8 +2336,8 @@
       <c r="W71" s="9"/>
     </row>
     <row r="72">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -2397,8 +2361,8 @@
       <c r="W72" s="9"/>
     </row>
     <row r="73">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -2422,8 +2386,8 @@
       <c r="W73" s="9"/>
     </row>
     <row r="74">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -2447,8 +2411,8 @@
       <c r="W74" s="9"/>
     </row>
     <row r="75">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -2472,8 +2436,8 @@
       <c r="W75" s="9"/>
     </row>
     <row r="76">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -2497,8 +2461,8 @@
       <c r="W76" s="9"/>
     </row>
     <row r="77">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -2522,8 +2486,8 @@
       <c r="W77" s="9"/>
     </row>
     <row r="78">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -2547,8 +2511,8 @@
       <c r="W78" s="9"/>
     </row>
     <row r="79">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -2572,8 +2536,8 @@
       <c r="W79" s="9"/>
     </row>
     <row r="80">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -2597,8 +2561,8 @@
       <c r="W80" s="9"/>
     </row>
     <row r="81">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -2622,8 +2586,8 @@
       <c r="W81" s="9"/>
     </row>
     <row r="82">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -2647,8 +2611,8 @@
       <c r="W82" s="9"/>
     </row>
     <row r="83">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -2672,8 +2636,8 @@
       <c r="W83" s="9"/>
     </row>
     <row r="84">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -2697,8 +2661,8 @@
       <c r="W84" s="9"/>
     </row>
     <row r="85">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -2722,8 +2686,8 @@
       <c r="W85" s="9"/>
     </row>
     <row r="86">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -2747,8 +2711,8 @@
       <c r="W86" s="9"/>
     </row>
     <row r="87">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -2772,8 +2736,8 @@
       <c r="W87" s="9"/>
     </row>
     <row r="88">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -2797,8 +2761,8 @@
       <c r="W88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -2822,8 +2786,8 @@
       <c r="W89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -2847,8 +2811,8 @@
       <c r="W90" s="9"/>
     </row>
     <row r="91">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -2872,8 +2836,8 @@
       <c r="W91" s="9"/>
     </row>
     <row r="92">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -2897,8 +2861,8 @@
       <c r="W92" s="9"/>
     </row>
     <row r="93">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -2922,8 +2886,8 @@
       <c r="W93" s="9"/>
     </row>
     <row r="94">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -2947,8 +2911,8 @@
       <c r="W94" s="9"/>
     </row>
     <row r="95">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -2972,8 +2936,8 @@
       <c r="W95" s="9"/>
     </row>
     <row r="96">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -2997,8 +2961,8 @@
       <c r="W96" s="9"/>
     </row>
     <row r="97">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -3022,8 +2986,8 @@
       <c r="W97" s="9"/>
     </row>
     <row r="98">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -3047,8 +3011,8 @@
       <c r="W98" s="9"/>
     </row>
     <row r="99">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -3072,8 +3036,8 @@
       <c r="W99" s="9"/>
     </row>
     <row r="100">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -3097,8 +3061,8 @@
       <c r="W100" s="9"/>
     </row>
     <row r="101">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -3122,29 +3086,29 @@
       <c r="W101" s="9"/>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="25"/>
-      <c r="S102" s="25"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="25"/>
-      <c r="V102" s="25"/>
-      <c r="W102" s="25"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>

--- a/fidesctl/src/fidesctl/templates/fides_datamap_template.xlsx
+++ b/fidesctl/src/fidesctl/templates/fides_datamap_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Controller</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>General description of technical and organisational security measures (if possible)</t>
+  </si>
+  <si>
+    <t>Role or Responsibility</t>
   </si>
   <si>
     <t>Article 6 lawful basis for processing personal data</t>
@@ -500,7 +503,7 @@
     <col customWidth="1" min="2" max="2" width="16.71"/>
     <col customWidth="1" min="3" max="3" width="20.43"/>
     <col customWidth="1" min="12" max="12" width="18.71"/>
-    <col customWidth="1" min="13" max="13" width="22.71"/>
+    <col customWidth="1" min="13" max="14" width="22.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -524,6 +527,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -555,6 +559,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
@@ -580,6 +585,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -605,6 +611,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -630,6 +637,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -655,6 +663,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
@@ -670,7 +679,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="3"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -680,6 +689,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
@@ -698,21 +708,22 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="13" t="s">
+      <c r="T8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="14"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
@@ -754,7 +765,7 @@
       <c r="M9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="18" t="s">
@@ -784,6 +795,9 @@
       <c r="W9" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="X9" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8"/>
@@ -809,6 +823,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
@@ -834,6 +849,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
@@ -859,6 +875,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -884,6 +901,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -909,6 +927,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
@@ -934,6 +953,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
@@ -959,6 +979,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
@@ -984,6 +1005,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -1009,6 +1031,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
@@ -1034,6 +1057,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
@@ -1059,6 +1083,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
@@ -1084,6 +1109,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
@@ -1109,6 +1135,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
@@ -1134,6 +1161,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
@@ -1159,6 +1187,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
@@ -1184,6 +1213,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
@@ -1209,6 +1239,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -1224,7 +1255,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -1234,6 +1265,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="8"/>
@@ -1259,6 +1291,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -1284,6 +1317,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="9"/>
@@ -1309,6 +1343,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="9"/>
@@ -1334,6 +1369,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" s="9"/>
@@ -1359,6 +1395,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="9"/>
@@ -1384,6 +1421,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="9"/>
@@ -1409,6 +1447,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="9"/>
@@ -1434,6 +1473,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" s="9"/>
@@ -1459,6 +1499,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" s="9"/>
@@ -1484,6 +1525,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -1509,6 +1551,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" s="9"/>
@@ -1534,6 +1577,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" s="9"/>
@@ -1559,6 +1603,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" s="9"/>
@@ -1584,6 +1629,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
     </row>
     <row r="42">
       <c r="A42" s="9"/>
@@ -1609,6 +1655,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="9"/>
@@ -1634,6 +1681,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="9"/>
@@ -1659,6 +1707,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="9"/>
@@ -1684,6 +1733,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
     </row>
     <row r="46">
       <c r="A46" s="9"/>
@@ -1709,6 +1759,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
     </row>
     <row r="47">
       <c r="A47" s="9"/>
@@ -1734,6 +1785,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
     </row>
     <row r="48">
       <c r="A48" s="9"/>
@@ -1759,6 +1811,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
     </row>
     <row r="49">
       <c r="A49" s="9"/>
@@ -1784,6 +1837,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
     </row>
     <row r="50">
       <c r="A50" s="9"/>
@@ -1809,6 +1863,7 @@
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
     </row>
     <row r="51">
       <c r="A51" s="9"/>
@@ -1834,6 +1889,7 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
     </row>
     <row r="52">
       <c r="A52" s="9"/>
@@ -1859,6 +1915,7 @@
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
     </row>
     <row r="53">
       <c r="A53" s="9"/>
@@ -1884,6 +1941,7 @@
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
     </row>
     <row r="54">
       <c r="A54" s="9"/>
@@ -1909,6 +1967,7 @@
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
     </row>
     <row r="55">
       <c r="A55" s="9"/>
@@ -1934,6 +1993,7 @@
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
     </row>
     <row r="56">
       <c r="A56" s="9"/>
@@ -1959,6 +2019,7 @@
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
     </row>
     <row r="57">
       <c r="A57" s="9"/>
@@ -1984,6 +2045,7 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
     </row>
     <row r="58">
       <c r="A58" s="9"/>
@@ -2009,6 +2071,7 @@
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
     </row>
     <row r="59">
       <c r="A59" s="9"/>
@@ -2034,6 +2097,7 @@
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
     </row>
     <row r="60">
       <c r="A60" s="9"/>
@@ -2059,6 +2123,7 @@
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
     </row>
     <row r="61">
       <c r="A61" s="9"/>
@@ -2084,6 +2149,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
     </row>
     <row r="62">
       <c r="A62" s="9"/>
@@ -2109,6 +2175,7 @@
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
     </row>
     <row r="63">
       <c r="A63" s="9"/>
@@ -2134,6 +2201,7 @@
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
     </row>
     <row r="64">
       <c r="A64" s="9"/>
@@ -2159,6 +2227,7 @@
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
     </row>
     <row r="65">
       <c r="A65" s="9"/>
@@ -2184,6 +2253,7 @@
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
     </row>
     <row r="66">
       <c r="A66" s="9"/>
@@ -2209,6 +2279,7 @@
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
     </row>
     <row r="67">
       <c r="A67" s="9"/>
@@ -2234,6 +2305,7 @@
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
     </row>
     <row r="68">
       <c r="A68" s="9"/>
@@ -2259,6 +2331,7 @@
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
     </row>
     <row r="69">
       <c r="A69" s="9"/>
@@ -2284,6 +2357,7 @@
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
     </row>
     <row r="70">
       <c r="A70" s="9"/>
@@ -2309,6 +2383,7 @@
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
     </row>
     <row r="71">
       <c r="A71" s="9"/>
@@ -2334,6 +2409,7 @@
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
     </row>
     <row r="72">
       <c r="A72" s="9"/>
@@ -2359,6 +2435,7 @@
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
     </row>
     <row r="73">
       <c r="A73" s="9"/>
@@ -2384,6 +2461,7 @@
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
     </row>
     <row r="74">
       <c r="A74" s="9"/>
@@ -2409,6 +2487,7 @@
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
     </row>
     <row r="75">
       <c r="A75" s="9"/>
@@ -2434,6 +2513,7 @@
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
     </row>
     <row r="76">
       <c r="A76" s="9"/>
@@ -2459,6 +2539,7 @@
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
     </row>
     <row r="77">
       <c r="A77" s="9"/>
@@ -2484,6 +2565,7 @@
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
     </row>
     <row r="78">
       <c r="A78" s="9"/>
@@ -2509,6 +2591,7 @@
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
     </row>
     <row r="79">
       <c r="A79" s="9"/>
@@ -2534,6 +2617,7 @@
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
     </row>
     <row r="80">
       <c r="A80" s="9"/>
@@ -2559,6 +2643,7 @@
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
     </row>
     <row r="81">
       <c r="A81" s="9"/>
@@ -2584,6 +2669,7 @@
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
     </row>
     <row r="82">
       <c r="A82" s="9"/>
@@ -2609,6 +2695,7 @@
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
     </row>
     <row r="83">
       <c r="A83" s="9"/>
@@ -2634,6 +2721,7 @@
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
     </row>
     <row r="84">
       <c r="A84" s="9"/>
@@ -2659,6 +2747,7 @@
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
     </row>
     <row r="85">
       <c r="A85" s="9"/>
@@ -2684,6 +2773,7 @@
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
     </row>
     <row r="86">
       <c r="A86" s="9"/>
@@ -2709,6 +2799,7 @@
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
     </row>
     <row r="87">
       <c r="A87" s="9"/>
@@ -2734,6 +2825,7 @@
       <c r="U87" s="9"/>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
     </row>
     <row r="88">
       <c r="A88" s="9"/>
@@ -2759,6 +2851,7 @@
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
     </row>
     <row r="89">
       <c r="A89" s="9"/>
@@ -2784,6 +2877,7 @@
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
     </row>
     <row r="90">
       <c r="A90" s="9"/>
@@ -2809,6 +2903,7 @@
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
     </row>
     <row r="91">
       <c r="A91" s="9"/>
@@ -2834,6 +2929,7 @@
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
     </row>
     <row r="92">
       <c r="A92" s="9"/>
@@ -2859,6 +2955,7 @@
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
     </row>
     <row r="93">
       <c r="A93" s="9"/>
@@ -2884,6 +2981,7 @@
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
     </row>
     <row r="94">
       <c r="A94" s="9"/>
@@ -2909,6 +3007,7 @@
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
     </row>
     <row r="95">
       <c r="A95" s="9"/>
@@ -2934,6 +3033,7 @@
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
       <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
     </row>
     <row r="96">
       <c r="A96" s="9"/>
@@ -2959,6 +3059,7 @@
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
     </row>
     <row r="97">
       <c r="A97" s="9"/>
@@ -2984,6 +3085,7 @@
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
     </row>
     <row r="98">
       <c r="A98" s="9"/>
@@ -3009,6 +3111,7 @@
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
     </row>
     <row r="99">
       <c r="A99" s="9"/>
@@ -3034,6 +3137,7 @@
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
     </row>
     <row r="100">
       <c r="A100" s="9"/>
@@ -3059,6 +3163,7 @@
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
     </row>
     <row r="101">
       <c r="A101" s="9"/>
@@ -3084,6 +3189,7 @@
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
     </row>
     <row r="102">
       <c r="A102" s="20"/>
@@ -3109,6 +3215,7 @@
       <c r="U102" s="20"/>
       <c r="V102" s="20"/>
       <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
@@ -3134,6 +3241,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
@@ -3159,6 +3267,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
@@ -3184,6 +3293,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
@@ -3209,6 +3319,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
@@ -3234,6 +3345,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
@@ -3259,6 +3371,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
@@ -3284,6 +3397,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
@@ -3309,6 +3423,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
@@ -3334,6 +3449,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
@@ -3359,6 +3475,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
@@ -3384,6 +3501,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="3"/>
@@ -3409,6 +3527,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
@@ -3434,6 +3553,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
@@ -3459,6 +3579,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
@@ -3484,6 +3605,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
@@ -3509,6 +3631,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
@@ -3534,6 +3657,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
@@ -3559,6 +3683,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
@@ -3584,6 +3709,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
@@ -3609,6 +3735,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
@@ -3634,6 +3761,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
@@ -3659,6 +3787,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
@@ -3684,6 +3813,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
@@ -3709,6 +3839,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
@@ -3734,6 +3865,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
@@ -3759,6 +3891,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
@@ -3784,6 +3917,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
@@ -3809,6 +3943,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
@@ -3834,6 +3969,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
@@ -3859,6 +3995,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
@@ -3884,6 +4021,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
@@ -3909,6 +4047,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
@@ -3934,6 +4073,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
@@ -3959,6 +4099,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
@@ -3984,6 +4125,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
@@ -4009,6 +4151,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
@@ -4034,6 +4177,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
@@ -4059,6 +4203,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
@@ -4084,6 +4229,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
@@ -4109,6 +4255,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
@@ -4134,6 +4281,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
@@ -4159,6 +4307,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
@@ -4184,6 +4333,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
@@ -4209,6 +4359,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
@@ -4234,6 +4385,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
@@ -4259,6 +4411,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
@@ -4284,6 +4437,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
@@ -4309,6 +4463,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
@@ -4334,6 +4489,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
@@ -4359,6 +4515,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
@@ -4384,6 +4541,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
+      <c r="X153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
@@ -4409,6 +4567,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
@@ -4434,6 +4593,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
@@ -4459,6 +4619,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
@@ -4484,6 +4645,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
@@ -4509,6 +4671,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
@@ -4534,6 +4697,7 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
@@ -4559,6 +4723,7 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
@@ -4584,6 +4749,7 @@
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
@@ -4609,6 +4775,7 @@
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
       <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
@@ -4634,6 +4801,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
       <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
@@ -4659,6 +4827,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
@@ -4684,6 +4853,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
@@ -4709,6 +4879,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
@@ -4734,6 +4905,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
@@ -4759,6 +4931,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
@@ -4784,6 +4957,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
@@ -4809,6 +4983,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
@@ -4834,6 +5009,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
@@ -4859,6 +5035,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
@@ -4884,6 +5061,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
@@ -4909,6 +5087,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
@@ -4934,6 +5113,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
@@ -4959,6 +5139,7 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
@@ -4984,6 +5165,7 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
@@ -5009,6 +5191,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
+      <c r="X178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
@@ -5034,6 +5217,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
+      <c r="X179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
@@ -5059,6 +5243,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
@@ -5084,6 +5269,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
@@ -5109,6 +5295,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
@@ -5134,6 +5321,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
@@ -5159,6 +5347,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
@@ -5184,6 +5373,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
@@ -5209,6 +5399,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
@@ -5234,6 +5425,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
@@ -5259,6 +5451,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
@@ -5284,6 +5477,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
@@ -5309,6 +5503,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
@@ -5334,6 +5529,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
@@ -5359,6 +5555,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
     </row>
     <row r="193">
       <c r="A193" s="3"/>
@@ -5384,6 +5581,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
     </row>
     <row r="194">
       <c r="A194" s="3"/>
@@ -5409,6 +5607,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
     </row>
     <row r="195">
       <c r="A195" s="3"/>
@@ -5434,6 +5633,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
     </row>
     <row r="196">
       <c r="A196" s="3"/>
@@ -5459,6 +5659,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
     </row>
     <row r="197">
       <c r="A197" s="3"/>
@@ -5484,6 +5685,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
     </row>
     <row r="198">
       <c r="A198" s="3"/>
@@ -5509,6 +5711,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
     </row>
     <row r="199">
       <c r="A199" s="3"/>
@@ -5534,6 +5737,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
@@ -5559,6 +5763,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
     </row>
     <row r="201">
       <c r="A201" s="3"/>
@@ -5584,6 +5789,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
     </row>
     <row r="202">
       <c r="A202" s="3"/>
@@ -5609,6 +5815,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3"/>
+      <c r="X202" s="3"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
@@ -5634,6 +5841,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
+      <c r="X203" s="3"/>
     </row>
     <row r="204">
       <c r="A204" s="3"/>
@@ -5659,6 +5867,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
@@ -5684,6 +5893,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
+      <c r="X205" s="3"/>
     </row>
     <row r="206">
       <c r="A206" s="3"/>
@@ -5709,6 +5919,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
     </row>
     <row r="207">
       <c r="A207" s="3"/>
@@ -5734,6 +5945,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
     </row>
     <row r="208">
       <c r="A208" s="3"/>
@@ -5759,6 +5971,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3"/>
+      <c r="X208" s="3"/>
     </row>
     <row r="209">
       <c r="A209" s="3"/>
@@ -5784,6 +5997,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
     </row>
     <row r="210">
       <c r="A210" s="3"/>
@@ -5809,6 +6023,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
+      <c r="X210" s="3"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
@@ -5834,6 +6049,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
@@ -5859,6 +6075,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3"/>
+      <c r="X212" s="3"/>
     </row>
     <row r="213">
       <c r="A213" s="3"/>
@@ -5884,6 +6101,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3"/>
+      <c r="X213" s="3"/>
     </row>
     <row r="214">
       <c r="A214" s="3"/>
@@ -5909,6 +6127,7 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3"/>
+      <c r="X214" s="3"/>
     </row>
     <row r="215">
       <c r="A215" s="3"/>
@@ -5934,6 +6153,7 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
     </row>
     <row r="216">
       <c r="A216" s="3"/>
@@ -5959,6 +6179,7 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3"/>
+      <c r="X216" s="3"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
@@ -5984,6 +6205,7 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
+      <c r="X217" s="3"/>
     </row>
     <row r="218">
       <c r="A218" s="3"/>
@@ -6009,6 +6231,7 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
+      <c r="X218" s="3"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
@@ -6034,6 +6257,7 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
+      <c r="X219" s="3"/>
     </row>
     <row r="220">
       <c r="A220" s="3"/>
@@ -6059,6 +6283,7 @@
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
+      <c r="X220" s="3"/>
     </row>
     <row r="221">
       <c r="A221" s="3"/>
@@ -6084,6 +6309,7 @@
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
     </row>
     <row r="222">
       <c r="A222" s="3"/>
@@ -6109,6 +6335,7 @@
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
+      <c r="X222" s="3"/>
     </row>
     <row r="223">
       <c r="A223" s="3"/>
@@ -6134,6 +6361,7 @@
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
     </row>
     <row r="224">
       <c r="A224" s="3"/>
@@ -6159,6 +6387,7 @@
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
+      <c r="X224" s="3"/>
     </row>
     <row r="225">
       <c r="A225" s="3"/>
@@ -6184,6 +6413,7 @@
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
+      <c r="X225" s="3"/>
     </row>
     <row r="226">
       <c r="A226" s="3"/>
@@ -6209,6 +6439,7 @@
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
       <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
     </row>
     <row r="227">
       <c r="A227" s="3"/>
@@ -6234,6 +6465,7 @@
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
     </row>
     <row r="228">
       <c r="A228" s="3"/>
@@ -6259,6 +6491,7 @@
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
       <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
     </row>
     <row r="229">
       <c r="A229" s="3"/>
@@ -6284,6 +6517,7 @@
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
       <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
     </row>
     <row r="230">
       <c r="A230" s="3"/>
@@ -6309,6 +6543,7 @@
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
       <c r="W230" s="3"/>
+      <c r="X230" s="3"/>
     </row>
     <row r="231">
       <c r="A231" s="3"/>
@@ -6334,6 +6569,7 @@
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
     </row>
     <row r="232">
       <c r="A232" s="3"/>
@@ -6359,6 +6595,7 @@
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
       <c r="W232" s="3"/>
+      <c r="X232" s="3"/>
     </row>
     <row r="233">
       <c r="A233" s="3"/>
@@ -6384,6 +6621,7 @@
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
+      <c r="X233" s="3"/>
     </row>
     <row r="234">
       <c r="A234" s="3"/>
@@ -6409,6 +6647,7 @@
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
     </row>
     <row r="235">
       <c r="A235" s="3"/>
@@ -6434,6 +6673,7 @@
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
     </row>
     <row r="236">
       <c r="A236" s="3"/>
@@ -6459,6 +6699,7 @@
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
     </row>
     <row r="237">
       <c r="A237" s="3"/>
@@ -6484,6 +6725,7 @@
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
     </row>
     <row r="238">
       <c r="A238" s="3"/>
@@ -6509,6 +6751,7 @@
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
     </row>
     <row r="239">
       <c r="A239" s="3"/>
@@ -6534,6 +6777,7 @@
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
     </row>
     <row r="240">
       <c r="A240" s="3"/>
@@ -6559,6 +6803,7 @@
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
     </row>
     <row r="241">
       <c r="A241" s="3"/>
@@ -6584,6 +6829,7 @@
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
     </row>
     <row r="242">
       <c r="A242" s="3"/>
@@ -6609,6 +6855,7 @@
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
     </row>
     <row r="243">
       <c r="A243" s="3"/>
@@ -6634,6 +6881,7 @@
       <c r="U243" s="3"/>
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
     </row>
     <row r="244">
       <c r="A244" s="3"/>
@@ -6659,6 +6907,7 @@
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
     </row>
     <row r="245">
       <c r="A245" s="3"/>
@@ -6684,6 +6933,7 @@
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
     </row>
     <row r="246">
       <c r="A246" s="3"/>
@@ -6709,6 +6959,7 @@
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
     </row>
     <row r="247">
       <c r="A247" s="3"/>
@@ -6734,6 +6985,7 @@
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
     </row>
     <row r="248">
       <c r="A248" s="3"/>
@@ -6759,6 +7011,7 @@
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
     </row>
     <row r="249">
       <c r="A249" s="3"/>
@@ -6784,6 +7037,7 @@
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
     </row>
     <row r="250">
       <c r="A250" s="3"/>
@@ -6809,6 +7063,7 @@
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
     </row>
     <row r="251">
       <c r="A251" s="3"/>
@@ -6834,6 +7089,7 @@
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
@@ -6859,6 +7115,7 @@
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
@@ -6884,6 +7141,7 @@
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
@@ -6909,6 +7167,7 @@
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
@@ -6934,6 +7193,7 @@
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
@@ -6959,6 +7219,7 @@
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
@@ -6984,6 +7245,7 @@
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
@@ -7009,6 +7271,7 @@
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
+      <c r="X258" s="3"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
@@ -7034,6 +7297,7 @@
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
       <c r="W259" s="3"/>
+      <c r="X259" s="3"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
@@ -7059,6 +7323,7 @@
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
       <c r="W260" s="3"/>
+      <c r="X260" s="3"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
@@ -7084,6 +7349,7 @@
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
       <c r="W261" s="3"/>
+      <c r="X261" s="3"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
@@ -7109,6 +7375,7 @@
       <c r="U262" s="3"/>
       <c r="V262" s="3"/>
       <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
@@ -7134,6 +7401,7 @@
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
       <c r="W263" s="3"/>
+      <c r="X263" s="3"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
@@ -7159,6 +7427,7 @@
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
       <c r="W264" s="3"/>
+      <c r="X264" s="3"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
@@ -7184,6 +7453,7 @@
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
       <c r="W265" s="3"/>
+      <c r="X265" s="3"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
@@ -7209,6 +7479,7 @@
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
@@ -7234,6 +7505,7 @@
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
       <c r="W267" s="3"/>
+      <c r="X267" s="3"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
@@ -7259,6 +7531,7 @@
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
       <c r="W268" s="3"/>
+      <c r="X268" s="3"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
@@ -7284,6 +7557,7 @@
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
       <c r="W269" s="3"/>
+      <c r="X269" s="3"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
@@ -7309,6 +7583,7 @@
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
       <c r="W270" s="3"/>
+      <c r="X270" s="3"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
@@ -7334,6 +7609,7 @@
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
       <c r="W271" s="3"/>
+      <c r="X271" s="3"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
@@ -7359,6 +7635,7 @@
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
       <c r="W272" s="3"/>
+      <c r="X272" s="3"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
@@ -7384,6 +7661,7 @@
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
       <c r="W273" s="3"/>
+      <c r="X273" s="3"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
@@ -7409,6 +7687,7 @@
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
       <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
@@ -7434,6 +7713,7 @@
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
       <c r="W275" s="3"/>
+      <c r="X275" s="3"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
@@ -7459,6 +7739,7 @@
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
       <c r="W276" s="3"/>
+      <c r="X276" s="3"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
@@ -7484,6 +7765,7 @@
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
+      <c r="X277" s="3"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
@@ -7509,6 +7791,7 @@
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
       <c r="W278" s="3"/>
+      <c r="X278" s="3"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
@@ -7534,6 +7817,7 @@
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
+      <c r="X279" s="3"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
@@ -7559,6 +7843,7 @@
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
       <c r="W280" s="3"/>
+      <c r="X280" s="3"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
@@ -7584,6 +7869,7 @@
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
       <c r="W281" s="3"/>
+      <c r="X281" s="3"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
@@ -7609,6 +7895,7 @@
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
       <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
@@ -7634,6 +7921,7 @@
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
       <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
@@ -7659,6 +7947,7 @@
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
       <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
@@ -7684,6 +7973,7 @@
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
       <c r="W285" s="3"/>
+      <c r="X285" s="3"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
@@ -7709,6 +7999,7 @@
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
       <c r="W286" s="3"/>
+      <c r="X286" s="3"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
@@ -7734,6 +8025,7 @@
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
+      <c r="X287" s="3"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
@@ -7759,6 +8051,7 @@
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
       <c r="W288" s="3"/>
+      <c r="X288" s="3"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
@@ -7784,6 +8077,7 @@
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
       <c r="W289" s="3"/>
+      <c r="X289" s="3"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
@@ -7809,6 +8103,7 @@
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
       <c r="W290" s="3"/>
+      <c r="X290" s="3"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
@@ -7834,6 +8129,7 @@
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
       <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
@@ -7859,6 +8155,7 @@
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
       <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
@@ -7884,6 +8181,7 @@
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
       <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
@@ -7909,6 +8207,7 @@
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
       <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
@@ -7934,6 +8233,7 @@
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
       <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
@@ -7959,6 +8259,7 @@
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
       <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
@@ -7984,6 +8285,7 @@
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
       <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
@@ -8009,6 +8311,7 @@
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
       <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
@@ -8034,6 +8337,7 @@
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
       <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
@@ -8059,6 +8363,7 @@
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
       <c r="W300" s="3"/>
+      <c r="X300" s="3"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
@@ -8084,6 +8389,7 @@
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
       <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
@@ -8109,6 +8415,7 @@
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
       <c r="W302" s="3"/>
+      <c r="X302" s="3"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
@@ -8134,6 +8441,7 @@
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
       <c r="W303" s="3"/>
+      <c r="X303" s="3"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
@@ -8159,6 +8467,7 @@
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
       <c r="W304" s="3"/>
+      <c r="X304" s="3"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
@@ -8184,6 +8493,7 @@
       <c r="U305" s="3"/>
       <c r="V305" s="3"/>
       <c r="W305" s="3"/>
+      <c r="X305" s="3"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
@@ -8209,6 +8519,7 @@
       <c r="U306" s="3"/>
       <c r="V306" s="3"/>
       <c r="W306" s="3"/>
+      <c r="X306" s="3"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
@@ -8234,6 +8545,7 @@
       <c r="U307" s="3"/>
       <c r="V307" s="3"/>
       <c r="W307" s="3"/>
+      <c r="X307" s="3"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
@@ -8259,6 +8571,7 @@
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
       <c r="W308" s="3"/>
+      <c r="X308" s="3"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
@@ -8284,6 +8597,7 @@
       <c r="U309" s="3"/>
       <c r="V309" s="3"/>
       <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
@@ -8309,6 +8623,7 @@
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
       <c r="W310" s="3"/>
+      <c r="X310" s="3"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
@@ -8334,6 +8649,7 @@
       <c r="U311" s="3"/>
       <c r="V311" s="3"/>
       <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
@@ -8359,6 +8675,7 @@
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
       <c r="W312" s="3"/>
+      <c r="X312" s="3"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
@@ -8384,6 +8701,7 @@
       <c r="U313" s="3"/>
       <c r="V313" s="3"/>
       <c r="W313" s="3"/>
+      <c r="X313" s="3"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
@@ -8409,6 +8727,7 @@
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
       <c r="W314" s="3"/>
+      <c r="X314" s="3"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
@@ -8434,6 +8753,7 @@
       <c r="U315" s="3"/>
       <c r="V315" s="3"/>
       <c r="W315" s="3"/>
+      <c r="X315" s="3"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
@@ -8459,6 +8779,7 @@
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
       <c r="W316" s="3"/>
+      <c r="X316" s="3"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
@@ -8484,6 +8805,7 @@
       <c r="U317" s="3"/>
       <c r="V317" s="3"/>
       <c r="W317" s="3"/>
+      <c r="X317" s="3"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
@@ -8509,6 +8831,7 @@
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
+      <c r="X318" s="3"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
@@ -8534,6 +8857,7 @@
       <c r="U319" s="3"/>
       <c r="V319" s="3"/>
       <c r="W319" s="3"/>
+      <c r="X319" s="3"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
@@ -8559,6 +8883,7 @@
       <c r="U320" s="3"/>
       <c r="V320" s="3"/>
       <c r="W320" s="3"/>
+      <c r="X320" s="3"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
@@ -8584,6 +8909,7 @@
       <c r="U321" s="3"/>
       <c r="V321" s="3"/>
       <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
@@ -8609,6 +8935,7 @@
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
+      <c r="X322" s="3"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
@@ -8634,6 +8961,7 @@
       <c r="U323" s="3"/>
       <c r="V323" s="3"/>
       <c r="W323" s="3"/>
+      <c r="X323" s="3"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
@@ -8659,6 +8987,7 @@
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
       <c r="W324" s="3"/>
+      <c r="X324" s="3"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
@@ -8684,6 +9013,7 @@
       <c r="U325" s="3"/>
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
+      <c r="X325" s="3"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
@@ -8709,6 +9039,7 @@
       <c r="U326" s="3"/>
       <c r="V326" s="3"/>
       <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
@@ -8734,6 +9065,7 @@
       <c r="U327" s="3"/>
       <c r="V327" s="3"/>
       <c r="W327" s="3"/>
+      <c r="X327" s="3"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
@@ -8759,6 +9091,7 @@
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
       <c r="W328" s="3"/>
+      <c r="X328" s="3"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
@@ -8784,6 +9117,7 @@
       <c r="U329" s="3"/>
       <c r="V329" s="3"/>
       <c r="W329" s="3"/>
+      <c r="X329" s="3"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
@@ -8809,6 +9143,7 @@
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
       <c r="W330" s="3"/>
+      <c r="X330" s="3"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
@@ -8834,6 +9169,7 @@
       <c r="U331" s="3"/>
       <c r="V331" s="3"/>
       <c r="W331" s="3"/>
+      <c r="X331" s="3"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
@@ -8859,6 +9195,7 @@
       <c r="U332" s="3"/>
       <c r="V332" s="3"/>
       <c r="W332" s="3"/>
+      <c r="X332" s="3"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
@@ -8884,6 +9221,7 @@
       <c r="U333" s="3"/>
       <c r="V333" s="3"/>
       <c r="W333" s="3"/>
+      <c r="X333" s="3"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
@@ -8909,6 +9247,7 @@
       <c r="U334" s="3"/>
       <c r="V334" s="3"/>
       <c r="W334" s="3"/>
+      <c r="X334" s="3"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
@@ -8934,6 +9273,7 @@
       <c r="U335" s="3"/>
       <c r="V335" s="3"/>
       <c r="W335" s="3"/>
+      <c r="X335" s="3"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
@@ -8959,6 +9299,7 @@
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
       <c r="W336" s="3"/>
+      <c r="X336" s="3"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
@@ -8984,6 +9325,7 @@
       <c r="U337" s="3"/>
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
+      <c r="X337" s="3"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
@@ -9009,6 +9351,7 @@
       <c r="U338" s="3"/>
       <c r="V338" s="3"/>
       <c r="W338" s="3"/>
+      <c r="X338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
@@ -9034,6 +9377,7 @@
       <c r="U339" s="3"/>
       <c r="V339" s="3"/>
       <c r="W339" s="3"/>
+      <c r="X339" s="3"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
@@ -9059,6 +9403,7 @@
       <c r="U340" s="3"/>
       <c r="V340" s="3"/>
       <c r="W340" s="3"/>
+      <c r="X340" s="3"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
@@ -9084,6 +9429,7 @@
       <c r="U341" s="3"/>
       <c r="V341" s="3"/>
       <c r="W341" s="3"/>
+      <c r="X341" s="3"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
@@ -9109,6 +9455,7 @@
       <c r="U342" s="3"/>
       <c r="V342" s="3"/>
       <c r="W342" s="3"/>
+      <c r="X342" s="3"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
@@ -9134,6 +9481,7 @@
       <c r="U343" s="3"/>
       <c r="V343" s="3"/>
       <c r="W343" s="3"/>
+      <c r="X343" s="3"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
@@ -9159,6 +9507,7 @@
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
       <c r="W344" s="3"/>
+      <c r="X344" s="3"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
@@ -9184,6 +9533,7 @@
       <c r="U345" s="3"/>
       <c r="V345" s="3"/>
       <c r="W345" s="3"/>
+      <c r="X345" s="3"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
@@ -9209,6 +9559,7 @@
       <c r="U346" s="3"/>
       <c r="V346" s="3"/>
       <c r="W346" s="3"/>
+      <c r="X346" s="3"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
@@ -9234,6 +9585,7 @@
       <c r="U347" s="3"/>
       <c r="V347" s="3"/>
       <c r="W347" s="3"/>
+      <c r="X347" s="3"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
@@ -9259,6 +9611,7 @@
       <c r="U348" s="3"/>
       <c r="V348" s="3"/>
       <c r="W348" s="3"/>
+      <c r="X348" s="3"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
@@ -9284,6 +9637,7 @@
       <c r="U349" s="3"/>
       <c r="V349" s="3"/>
       <c r="W349" s="3"/>
+      <c r="X349" s="3"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
@@ -9309,6 +9663,7 @@
       <c r="U350" s="3"/>
       <c r="V350" s="3"/>
       <c r="W350" s="3"/>
+      <c r="X350" s="3"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
@@ -9334,6 +9689,7 @@
       <c r="U351" s="3"/>
       <c r="V351" s="3"/>
       <c r="W351" s="3"/>
+      <c r="X351" s="3"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
@@ -9359,6 +9715,7 @@
       <c r="U352" s="3"/>
       <c r="V352" s="3"/>
       <c r="W352" s="3"/>
+      <c r="X352" s="3"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
@@ -9384,6 +9741,7 @@
       <c r="U353" s="3"/>
       <c r="V353" s="3"/>
       <c r="W353" s="3"/>
+      <c r="X353" s="3"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
@@ -9409,6 +9767,7 @@
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
       <c r="W354" s="3"/>
+      <c r="X354" s="3"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
@@ -9434,6 +9793,7 @@
       <c r="U355" s="3"/>
       <c r="V355" s="3"/>
       <c r="W355" s="3"/>
+      <c r="X355" s="3"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
@@ -9459,6 +9819,7 @@
       <c r="U356" s="3"/>
       <c r="V356" s="3"/>
       <c r="W356" s="3"/>
+      <c r="X356" s="3"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
@@ -9484,6 +9845,7 @@
       <c r="U357" s="3"/>
       <c r="V357" s="3"/>
       <c r="W357" s="3"/>
+      <c r="X357" s="3"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
@@ -9509,6 +9871,7 @@
       <c r="U358" s="3"/>
       <c r="V358" s="3"/>
       <c r="W358" s="3"/>
+      <c r="X358" s="3"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
@@ -9534,6 +9897,7 @@
       <c r="U359" s="3"/>
       <c r="V359" s="3"/>
       <c r="W359" s="3"/>
+      <c r="X359" s="3"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
@@ -9559,6 +9923,7 @@
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
       <c r="W360" s="3"/>
+      <c r="X360" s="3"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
@@ -9584,6 +9949,7 @@
       <c r="U361" s="3"/>
       <c r="V361" s="3"/>
       <c r="W361" s="3"/>
+      <c r="X361" s="3"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
@@ -9609,6 +9975,7 @@
       <c r="U362" s="3"/>
       <c r="V362" s="3"/>
       <c r="W362" s="3"/>
+      <c r="X362" s="3"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
@@ -9634,6 +10001,7 @@
       <c r="U363" s="3"/>
       <c r="V363" s="3"/>
       <c r="W363" s="3"/>
+      <c r="X363" s="3"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
@@ -9659,6 +10027,7 @@
       <c r="U364" s="3"/>
       <c r="V364" s="3"/>
       <c r="W364" s="3"/>
+      <c r="X364" s="3"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
@@ -9684,6 +10053,7 @@
       <c r="U365" s="3"/>
       <c r="V365" s="3"/>
       <c r="W365" s="3"/>
+      <c r="X365" s="3"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
@@ -9709,6 +10079,7 @@
       <c r="U366" s="3"/>
       <c r="V366" s="3"/>
       <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
@@ -9734,6 +10105,7 @@
       <c r="U367" s="3"/>
       <c r="V367" s="3"/>
       <c r="W367" s="3"/>
+      <c r="X367" s="3"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
@@ -9759,6 +10131,7 @@
       <c r="U368" s="3"/>
       <c r="V368" s="3"/>
       <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
@@ -9784,6 +10157,7 @@
       <c r="U369" s="3"/>
       <c r="V369" s="3"/>
       <c r="W369" s="3"/>
+      <c r="X369" s="3"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
@@ -9809,6 +10183,7 @@
       <c r="U370" s="3"/>
       <c r="V370" s="3"/>
       <c r="W370" s="3"/>
+      <c r="X370" s="3"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
@@ -9834,6 +10209,7 @@
       <c r="U371" s="3"/>
       <c r="V371" s="3"/>
       <c r="W371" s="3"/>
+      <c r="X371" s="3"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
@@ -9859,6 +10235,7 @@
       <c r="U372" s="3"/>
       <c r="V372" s="3"/>
       <c r="W372" s="3"/>
+      <c r="X372" s="3"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
@@ -9884,6 +10261,7 @@
       <c r="U373" s="3"/>
       <c r="V373" s="3"/>
       <c r="W373" s="3"/>
+      <c r="X373" s="3"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
@@ -9909,6 +10287,7 @@
       <c r="U374" s="3"/>
       <c r="V374" s="3"/>
       <c r="W374" s="3"/>
+      <c r="X374" s="3"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
@@ -9934,6 +10313,7 @@
       <c r="U375" s="3"/>
       <c r="V375" s="3"/>
       <c r="W375" s="3"/>
+      <c r="X375" s="3"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
@@ -9959,6 +10339,7 @@
       <c r="U376" s="3"/>
       <c r="V376" s="3"/>
       <c r="W376" s="3"/>
+      <c r="X376" s="3"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
@@ -9984,6 +10365,7 @@
       <c r="U377" s="3"/>
       <c r="V377" s="3"/>
       <c r="W377" s="3"/>
+      <c r="X377" s="3"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
@@ -10009,6 +10391,7 @@
       <c r="U378" s="3"/>
       <c r="V378" s="3"/>
       <c r="W378" s="3"/>
+      <c r="X378" s="3"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
@@ -10034,6 +10417,7 @@
       <c r="U379" s="3"/>
       <c r="V379" s="3"/>
       <c r="W379" s="3"/>
+      <c r="X379" s="3"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
@@ -10059,6 +10443,7 @@
       <c r="U380" s="3"/>
       <c r="V380" s="3"/>
       <c r="W380" s="3"/>
+      <c r="X380" s="3"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
@@ -10084,6 +10469,7 @@
       <c r="U381" s="3"/>
       <c r="V381" s="3"/>
       <c r="W381" s="3"/>
+      <c r="X381" s="3"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
@@ -10109,6 +10495,7 @@
       <c r="U382" s="3"/>
       <c r="V382" s="3"/>
       <c r="W382" s="3"/>
+      <c r="X382" s="3"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
@@ -10134,6 +10521,7 @@
       <c r="U383" s="3"/>
       <c r="V383" s="3"/>
       <c r="W383" s="3"/>
+      <c r="X383" s="3"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
@@ -10159,6 +10547,7 @@
       <c r="U384" s="3"/>
       <c r="V384" s="3"/>
       <c r="W384" s="3"/>
+      <c r="X384" s="3"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
@@ -10184,6 +10573,7 @@
       <c r="U385" s="3"/>
       <c r="V385" s="3"/>
       <c r="W385" s="3"/>
+      <c r="X385" s="3"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
@@ -10209,6 +10599,7 @@
       <c r="U386" s="3"/>
       <c r="V386" s="3"/>
       <c r="W386" s="3"/>
+      <c r="X386" s="3"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
@@ -10234,6 +10625,7 @@
       <c r="U387" s="3"/>
       <c r="V387" s="3"/>
       <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
@@ -10259,6 +10651,7 @@
       <c r="U388" s="3"/>
       <c r="V388" s="3"/>
       <c r="W388" s="3"/>
+      <c r="X388" s="3"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
@@ -10284,6 +10677,7 @@
       <c r="U389" s="3"/>
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
+      <c r="X389" s="3"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
@@ -10309,6 +10703,7 @@
       <c r="U390" s="3"/>
       <c r="V390" s="3"/>
       <c r="W390" s="3"/>
+      <c r="X390" s="3"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
@@ -10334,6 +10729,7 @@
       <c r="U391" s="3"/>
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
+      <c r="X391" s="3"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
@@ -10359,6 +10755,7 @@
       <c r="U392" s="3"/>
       <c r="V392" s="3"/>
       <c r="W392" s="3"/>
+      <c r="X392" s="3"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
@@ -10384,6 +10781,7 @@
       <c r="U393" s="3"/>
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
+      <c r="X393" s="3"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
@@ -10409,6 +10807,7 @@
       <c r="U394" s="3"/>
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
+      <c r="X394" s="3"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
@@ -10434,6 +10833,7 @@
       <c r="U395" s="3"/>
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
+      <c r="X395" s="3"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
@@ -10459,6 +10859,7 @@
       <c r="U396" s="3"/>
       <c r="V396" s="3"/>
       <c r="W396" s="3"/>
+      <c r="X396" s="3"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
@@ -10484,6 +10885,7 @@
       <c r="U397" s="3"/>
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
+      <c r="X397" s="3"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
@@ -10509,6 +10911,7 @@
       <c r="U398" s="3"/>
       <c r="V398" s="3"/>
       <c r="W398" s="3"/>
+      <c r="X398" s="3"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
@@ -10534,6 +10937,7 @@
       <c r="U399" s="3"/>
       <c r="V399" s="3"/>
       <c r="W399" s="3"/>
+      <c r="X399" s="3"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
@@ -10559,6 +10963,7 @@
       <c r="U400" s="3"/>
       <c r="V400" s="3"/>
       <c r="W400" s="3"/>
+      <c r="X400" s="3"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
@@ -10584,6 +10989,7 @@
       <c r="U401" s="3"/>
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
+      <c r="X401" s="3"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
@@ -10609,6 +11015,7 @@
       <c r="U402" s="3"/>
       <c r="V402" s="3"/>
       <c r="W402" s="3"/>
+      <c r="X402" s="3"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
@@ -10634,6 +11041,7 @@
       <c r="U403" s="3"/>
       <c r="V403" s="3"/>
       <c r="W403" s="3"/>
+      <c r="X403" s="3"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
@@ -10659,6 +11067,7 @@
       <c r="U404" s="3"/>
       <c r="V404" s="3"/>
       <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
@@ -10684,6 +11093,7 @@
       <c r="U405" s="3"/>
       <c r="V405" s="3"/>
       <c r="W405" s="3"/>
+      <c r="X405" s="3"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
@@ -10709,6 +11119,7 @@
       <c r="U406" s="3"/>
       <c r="V406" s="3"/>
       <c r="W406" s="3"/>
+      <c r="X406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
@@ -10734,6 +11145,7 @@
       <c r="U407" s="3"/>
       <c r="V407" s="3"/>
       <c r="W407" s="3"/>
+      <c r="X407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
@@ -10759,6 +11171,7 @@
       <c r="U408" s="3"/>
       <c r="V408" s="3"/>
       <c r="W408" s="3"/>
+      <c r="X408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
@@ -10784,6 +11197,7 @@
       <c r="U409" s="3"/>
       <c r="V409" s="3"/>
       <c r="W409" s="3"/>
+      <c r="X409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
@@ -10809,6 +11223,7 @@
       <c r="U410" s="3"/>
       <c r="V410" s="3"/>
       <c r="W410" s="3"/>
+      <c r="X410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
@@ -10834,6 +11249,7 @@
       <c r="U411" s="3"/>
       <c r="V411" s="3"/>
       <c r="W411" s="3"/>
+      <c r="X411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
@@ -10859,6 +11275,7 @@
       <c r="U412" s="3"/>
       <c r="V412" s="3"/>
       <c r="W412" s="3"/>
+      <c r="X412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
@@ -10884,6 +11301,7 @@
       <c r="U413" s="3"/>
       <c r="V413" s="3"/>
       <c r="W413" s="3"/>
+      <c r="X413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
@@ -10909,6 +11327,7 @@
       <c r="U414" s="3"/>
       <c r="V414" s="3"/>
       <c r="W414" s="3"/>
+      <c r="X414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
@@ -10934,6 +11353,7 @@
       <c r="U415" s="3"/>
       <c r="V415" s="3"/>
       <c r="W415" s="3"/>
+      <c r="X415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
@@ -10959,6 +11379,7 @@
       <c r="U416" s="3"/>
       <c r="V416" s="3"/>
       <c r="W416" s="3"/>
+      <c r="X416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
@@ -10984,6 +11405,7 @@
       <c r="U417" s="3"/>
       <c r="V417" s="3"/>
       <c r="W417" s="3"/>
+      <c r="X417" s="3"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
@@ -11009,6 +11431,7 @@
       <c r="U418" s="3"/>
       <c r="V418" s="3"/>
       <c r="W418" s="3"/>
+      <c r="X418" s="3"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
@@ -11034,6 +11457,7 @@
       <c r="U419" s="3"/>
       <c r="V419" s="3"/>
       <c r="W419" s="3"/>
+      <c r="X419" s="3"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
@@ -11059,6 +11483,7 @@
       <c r="U420" s="3"/>
       <c r="V420" s="3"/>
       <c r="W420" s="3"/>
+      <c r="X420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
@@ -11084,6 +11509,7 @@
       <c r="U421" s="3"/>
       <c r="V421" s="3"/>
       <c r="W421" s="3"/>
+      <c r="X421" s="3"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
@@ -11109,6 +11535,7 @@
       <c r="U422" s="3"/>
       <c r="V422" s="3"/>
       <c r="W422" s="3"/>
+      <c r="X422" s="3"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
@@ -11134,6 +11561,7 @@
       <c r="U423" s="3"/>
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
+      <c r="X423" s="3"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
@@ -11159,6 +11587,7 @@
       <c r="U424" s="3"/>
       <c r="V424" s="3"/>
       <c r="W424" s="3"/>
+      <c r="X424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
@@ -11184,6 +11613,7 @@
       <c r="U425" s="3"/>
       <c r="V425" s="3"/>
       <c r="W425" s="3"/>
+      <c r="X425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
@@ -11209,6 +11639,7 @@
       <c r="U426" s="3"/>
       <c r="V426" s="3"/>
       <c r="W426" s="3"/>
+      <c r="X426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
@@ -11234,6 +11665,7 @@
       <c r="U427" s="3"/>
       <c r="V427" s="3"/>
       <c r="W427" s="3"/>
+      <c r="X427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
@@ -11259,6 +11691,7 @@
       <c r="U428" s="3"/>
       <c r="V428" s="3"/>
       <c r="W428" s="3"/>
+      <c r="X428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
@@ -11284,6 +11717,7 @@
       <c r="U429" s="3"/>
       <c r="V429" s="3"/>
       <c r="W429" s="3"/>
+      <c r="X429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
@@ -11309,6 +11743,7 @@
       <c r="U430" s="3"/>
       <c r="V430" s="3"/>
       <c r="W430" s="3"/>
+      <c r="X430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
@@ -11334,6 +11769,7 @@
       <c r="U431" s="3"/>
       <c r="V431" s="3"/>
       <c r="W431" s="3"/>
+      <c r="X431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
@@ -11359,6 +11795,7 @@
       <c r="U432" s="3"/>
       <c r="V432" s="3"/>
       <c r="W432" s="3"/>
+      <c r="X432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
@@ -11384,6 +11821,7 @@
       <c r="U433" s="3"/>
       <c r="V433" s="3"/>
       <c r="W433" s="3"/>
+      <c r="X433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
@@ -11409,6 +11847,7 @@
       <c r="U434" s="3"/>
       <c r="V434" s="3"/>
       <c r="W434" s="3"/>
+      <c r="X434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
@@ -11434,6 +11873,7 @@
       <c r="U435" s="3"/>
       <c r="V435" s="3"/>
       <c r="W435" s="3"/>
+      <c r="X435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
@@ -11459,6 +11899,7 @@
       <c r="U436" s="3"/>
       <c r="V436" s="3"/>
       <c r="W436" s="3"/>
+      <c r="X436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
@@ -11484,6 +11925,7 @@
       <c r="U437" s="3"/>
       <c r="V437" s="3"/>
       <c r="W437" s="3"/>
+      <c r="X437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
@@ -11509,6 +11951,7 @@
       <c r="U438" s="3"/>
       <c r="V438" s="3"/>
       <c r="W438" s="3"/>
+      <c r="X438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
@@ -11534,6 +11977,7 @@
       <c r="U439" s="3"/>
       <c r="V439" s="3"/>
       <c r="W439" s="3"/>
+      <c r="X439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
@@ -11559,6 +12003,7 @@
       <c r="U440" s="3"/>
       <c r="V440" s="3"/>
       <c r="W440" s="3"/>
+      <c r="X440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
@@ -11584,6 +12029,7 @@
       <c r="U441" s="3"/>
       <c r="V441" s="3"/>
       <c r="W441" s="3"/>
+      <c r="X441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
@@ -11609,6 +12055,7 @@
       <c r="U442" s="3"/>
       <c r="V442" s="3"/>
       <c r="W442" s="3"/>
+      <c r="X442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
@@ -11634,6 +12081,7 @@
       <c r="U443" s="3"/>
       <c r="V443" s="3"/>
       <c r="W443" s="3"/>
+      <c r="X443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
@@ -11659,6 +12107,7 @@
       <c r="U444" s="3"/>
       <c r="V444" s="3"/>
       <c r="W444" s="3"/>
+      <c r="X444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
@@ -11684,6 +12133,7 @@
       <c r="U445" s="3"/>
       <c r="V445" s="3"/>
       <c r="W445" s="3"/>
+      <c r="X445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
@@ -11709,6 +12159,7 @@
       <c r="U446" s="3"/>
       <c r="V446" s="3"/>
       <c r="W446" s="3"/>
+      <c r="X446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
@@ -11734,6 +12185,7 @@
       <c r="U447" s="3"/>
       <c r="V447" s="3"/>
       <c r="W447" s="3"/>
+      <c r="X447" s="3"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
@@ -11759,6 +12211,7 @@
       <c r="U448" s="3"/>
       <c r="V448" s="3"/>
       <c r="W448" s="3"/>
+      <c r="X448" s="3"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
@@ -11784,6 +12237,7 @@
       <c r="U449" s="3"/>
       <c r="V449" s="3"/>
       <c r="W449" s="3"/>
+      <c r="X449" s="3"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
@@ -11809,6 +12263,7 @@
       <c r="U450" s="3"/>
       <c r="V450" s="3"/>
       <c r="W450" s="3"/>
+      <c r="X450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
@@ -11834,6 +12289,7 @@
       <c r="U451" s="3"/>
       <c r="V451" s="3"/>
       <c r="W451" s="3"/>
+      <c r="X451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
@@ -11859,6 +12315,7 @@
       <c r="U452" s="3"/>
       <c r="V452" s="3"/>
       <c r="W452" s="3"/>
+      <c r="X452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
@@ -11884,6 +12341,7 @@
       <c r="U453" s="3"/>
       <c r="V453" s="3"/>
       <c r="W453" s="3"/>
+      <c r="X453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
@@ -11909,6 +12367,7 @@
       <c r="U454" s="3"/>
       <c r="V454" s="3"/>
       <c r="W454" s="3"/>
+      <c r="X454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
@@ -11934,6 +12393,7 @@
       <c r="U455" s="3"/>
       <c r="V455" s="3"/>
       <c r="W455" s="3"/>
+      <c r="X455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
@@ -11959,6 +12419,7 @@
       <c r="U456" s="3"/>
       <c r="V456" s="3"/>
       <c r="W456" s="3"/>
+      <c r="X456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
@@ -11984,6 +12445,7 @@
       <c r="U457" s="3"/>
       <c r="V457" s="3"/>
       <c r="W457" s="3"/>
+      <c r="X457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
@@ -12009,6 +12471,7 @@
       <c r="U458" s="3"/>
       <c r="V458" s="3"/>
       <c r="W458" s="3"/>
+      <c r="X458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
@@ -12034,6 +12497,7 @@
       <c r="U459" s="3"/>
       <c r="V459" s="3"/>
       <c r="W459" s="3"/>
+      <c r="X459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
@@ -12059,6 +12523,7 @@
       <c r="U460" s="3"/>
       <c r="V460" s="3"/>
       <c r="W460" s="3"/>
+      <c r="X460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
@@ -12084,6 +12549,7 @@
       <c r="U461" s="3"/>
       <c r="V461" s="3"/>
       <c r="W461" s="3"/>
+      <c r="X461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
@@ -12109,6 +12575,7 @@
       <c r="U462" s="3"/>
       <c r="V462" s="3"/>
       <c r="W462" s="3"/>
+      <c r="X462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
@@ -12134,6 +12601,7 @@
       <c r="U463" s="3"/>
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
+      <c r="X463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
@@ -12159,6 +12627,7 @@
       <c r="U464" s="3"/>
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
+      <c r="X464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
@@ -12184,6 +12653,7 @@
       <c r="U465" s="3"/>
       <c r="V465" s="3"/>
       <c r="W465" s="3"/>
+      <c r="X465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
@@ -12209,6 +12679,7 @@
       <c r="U466" s="3"/>
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
+      <c r="X466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
@@ -12234,6 +12705,7 @@
       <c r="U467" s="3"/>
       <c r="V467" s="3"/>
       <c r="W467" s="3"/>
+      <c r="X467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
@@ -12259,6 +12731,7 @@
       <c r="U468" s="3"/>
       <c r="V468" s="3"/>
       <c r="W468" s="3"/>
+      <c r="X468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
@@ -12284,6 +12757,7 @@
       <c r="U469" s="3"/>
       <c r="V469" s="3"/>
       <c r="W469" s="3"/>
+      <c r="X469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
@@ -12309,6 +12783,7 @@
       <c r="U470" s="3"/>
       <c r="V470" s="3"/>
       <c r="W470" s="3"/>
+      <c r="X470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
@@ -12334,6 +12809,7 @@
       <c r="U471" s="3"/>
       <c r="V471" s="3"/>
       <c r="W471" s="3"/>
+      <c r="X471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
@@ -12359,6 +12835,7 @@
       <c r="U472" s="3"/>
       <c r="V472" s="3"/>
       <c r="W472" s="3"/>
+      <c r="X472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
@@ -12384,6 +12861,7 @@
       <c r="U473" s="3"/>
       <c r="V473" s="3"/>
       <c r="W473" s="3"/>
+      <c r="X473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
@@ -12409,6 +12887,7 @@
       <c r="U474" s="3"/>
       <c r="V474" s="3"/>
       <c r="W474" s="3"/>
+      <c r="X474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
@@ -12434,6 +12913,7 @@
       <c r="U475" s="3"/>
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
+      <c r="X475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
@@ -12459,6 +12939,7 @@
       <c r="U476" s="3"/>
       <c r="V476" s="3"/>
       <c r="W476" s="3"/>
+      <c r="X476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
@@ -12484,6 +12965,7 @@
       <c r="U477" s="3"/>
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
+      <c r="X477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
@@ -12509,6 +12991,7 @@
       <c r="U478" s="3"/>
       <c r="V478" s="3"/>
       <c r="W478" s="3"/>
+      <c r="X478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
@@ -12534,6 +13017,7 @@
       <c r="U479" s="3"/>
       <c r="V479" s="3"/>
       <c r="W479" s="3"/>
+      <c r="X479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
@@ -12559,6 +13043,7 @@
       <c r="U480" s="3"/>
       <c r="V480" s="3"/>
       <c r="W480" s="3"/>
+      <c r="X480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
@@ -12584,6 +13069,7 @@
       <c r="U481" s="3"/>
       <c r="V481" s="3"/>
       <c r="W481" s="3"/>
+      <c r="X481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
@@ -12609,6 +13095,7 @@
       <c r="U482" s="3"/>
       <c r="V482" s="3"/>
       <c r="W482" s="3"/>
+      <c r="X482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
@@ -12634,6 +13121,7 @@
       <c r="U483" s="3"/>
       <c r="V483" s="3"/>
       <c r="W483" s="3"/>
+      <c r="X483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
@@ -12659,6 +13147,7 @@
       <c r="U484" s="3"/>
       <c r="V484" s="3"/>
       <c r="W484" s="3"/>
+      <c r="X484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
@@ -12684,6 +13173,7 @@
       <c r="U485" s="3"/>
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
+      <c r="X485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
@@ -12709,6 +13199,7 @@
       <c r="U486" s="3"/>
       <c r="V486" s="3"/>
       <c r="W486" s="3"/>
+      <c r="X486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
@@ -12734,6 +13225,7 @@
       <c r="U487" s="3"/>
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
+      <c r="X487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
@@ -12759,6 +13251,7 @@
       <c r="U488" s="3"/>
       <c r="V488" s="3"/>
       <c r="W488" s="3"/>
+      <c r="X488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
@@ -12784,6 +13277,7 @@
       <c r="U489" s="3"/>
       <c r="V489" s="3"/>
       <c r="W489" s="3"/>
+      <c r="X489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
@@ -12809,6 +13303,7 @@
       <c r="U490" s="3"/>
       <c r="V490" s="3"/>
       <c r="W490" s="3"/>
+      <c r="X490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
@@ -12834,6 +13329,7 @@
       <c r="U491" s="3"/>
       <c r="V491" s="3"/>
       <c r="W491" s="3"/>
+      <c r="X491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
@@ -12859,6 +13355,7 @@
       <c r="U492" s="3"/>
       <c r="V492" s="3"/>
       <c r="W492" s="3"/>
+      <c r="X492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
@@ -12884,6 +13381,7 @@
       <c r="U493" s="3"/>
       <c r="V493" s="3"/>
       <c r="W493" s="3"/>
+      <c r="X493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
@@ -12909,6 +13407,7 @@
       <c r="U494" s="3"/>
       <c r="V494" s="3"/>
       <c r="W494" s="3"/>
+      <c r="X494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
@@ -12934,6 +13433,7 @@
       <c r="U495" s="3"/>
       <c r="V495" s="3"/>
       <c r="W495" s="3"/>
+      <c r="X495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
@@ -12959,6 +13459,7 @@
       <c r="U496" s="3"/>
       <c r="V496" s="3"/>
       <c r="W496" s="3"/>
+      <c r="X496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
@@ -12984,6 +13485,7 @@
       <c r="U497" s="3"/>
       <c r="V497" s="3"/>
       <c r="W497" s="3"/>
+      <c r="X497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
@@ -13009,6 +13511,7 @@
       <c r="U498" s="3"/>
       <c r="V498" s="3"/>
       <c r="W498" s="3"/>
+      <c r="X498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
@@ -13034,6 +13537,7 @@
       <c r="U499" s="3"/>
       <c r="V499" s="3"/>
       <c r="W499" s="3"/>
+      <c r="X499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
@@ -13059,6 +13563,7 @@
       <c r="U500" s="3"/>
       <c r="V500" s="3"/>
       <c r="W500" s="3"/>
+      <c r="X500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
@@ -13084,6 +13589,7 @@
       <c r="U501" s="3"/>
       <c r="V501" s="3"/>
       <c r="W501" s="3"/>
+      <c r="X501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
@@ -13109,6 +13615,7 @@
       <c r="U502" s="3"/>
       <c r="V502" s="3"/>
       <c r="W502" s="3"/>
+      <c r="X502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
@@ -13134,6 +13641,7 @@
       <c r="U503" s="3"/>
       <c r="V503" s="3"/>
       <c r="W503" s="3"/>
+      <c r="X503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
@@ -13159,6 +13667,7 @@
       <c r="U504" s="3"/>
       <c r="V504" s="3"/>
       <c r="W504" s="3"/>
+      <c r="X504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
@@ -13184,6 +13693,7 @@
       <c r="U505" s="3"/>
       <c r="V505" s="3"/>
       <c r="W505" s="3"/>
+      <c r="X505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
@@ -13209,6 +13719,7 @@
       <c r="U506" s="3"/>
       <c r="V506" s="3"/>
       <c r="W506" s="3"/>
+      <c r="X506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
@@ -13234,6 +13745,7 @@
       <c r="U507" s="3"/>
       <c r="V507" s="3"/>
       <c r="W507" s="3"/>
+      <c r="X507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
@@ -13259,6 +13771,7 @@
       <c r="U508" s="3"/>
       <c r="V508" s="3"/>
       <c r="W508" s="3"/>
+      <c r="X508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
@@ -13284,6 +13797,7 @@
       <c r="U509" s="3"/>
       <c r="V509" s="3"/>
       <c r="W509" s="3"/>
+      <c r="X509" s="3"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
@@ -13309,6 +13823,7 @@
       <c r="U510" s="3"/>
       <c r="V510" s="3"/>
       <c r="W510" s="3"/>
+      <c r="X510" s="3"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
@@ -13334,6 +13849,7 @@
       <c r="U511" s="3"/>
       <c r="V511" s="3"/>
       <c r="W511" s="3"/>
+      <c r="X511" s="3"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
@@ -13359,6 +13875,7 @@
       <c r="U512" s="3"/>
       <c r="V512" s="3"/>
       <c r="W512" s="3"/>
+      <c r="X512" s="3"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
@@ -13384,6 +13901,7 @@
       <c r="U513" s="3"/>
       <c r="V513" s="3"/>
       <c r="W513" s="3"/>
+      <c r="X513" s="3"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
@@ -13409,6 +13927,7 @@
       <c r="U514" s="3"/>
       <c r="V514" s="3"/>
       <c r="W514" s="3"/>
+      <c r="X514" s="3"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
@@ -13434,6 +13953,7 @@
       <c r="U515" s="3"/>
       <c r="V515" s="3"/>
       <c r="W515" s="3"/>
+      <c r="X515" s="3"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
@@ -13459,6 +13979,7 @@
       <c r="U516" s="3"/>
       <c r="V516" s="3"/>
       <c r="W516" s="3"/>
+      <c r="X516" s="3"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
@@ -13484,6 +14005,7 @@
       <c r="U517" s="3"/>
       <c r="V517" s="3"/>
       <c r="W517" s="3"/>
+      <c r="X517" s="3"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
@@ -13509,6 +14031,7 @@
       <c r="U518" s="3"/>
       <c r="V518" s="3"/>
       <c r="W518" s="3"/>
+      <c r="X518" s="3"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
@@ -13534,6 +14057,7 @@
       <c r="U519" s="3"/>
       <c r="V519" s="3"/>
       <c r="W519" s="3"/>
+      <c r="X519" s="3"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
@@ -13559,6 +14083,7 @@
       <c r="U520" s="3"/>
       <c r="V520" s="3"/>
       <c r="W520" s="3"/>
+      <c r="X520" s="3"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
@@ -13584,6 +14109,7 @@
       <c r="U521" s="3"/>
       <c r="V521" s="3"/>
       <c r="W521" s="3"/>
+      <c r="X521" s="3"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
@@ -13609,6 +14135,7 @@
       <c r="U522" s="3"/>
       <c r="V522" s="3"/>
       <c r="W522" s="3"/>
+      <c r="X522" s="3"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
@@ -13634,6 +14161,7 @@
       <c r="U523" s="3"/>
       <c r="V523" s="3"/>
       <c r="W523" s="3"/>
+      <c r="X523" s="3"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
@@ -13659,6 +14187,7 @@
       <c r="U524" s="3"/>
       <c r="V524" s="3"/>
       <c r="W524" s="3"/>
+      <c r="X524" s="3"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
@@ -13684,6 +14213,7 @@
       <c r="U525" s="3"/>
       <c r="V525" s="3"/>
       <c r="W525" s="3"/>
+      <c r="X525" s="3"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
@@ -13709,6 +14239,7 @@
       <c r="U526" s="3"/>
       <c r="V526" s="3"/>
       <c r="W526" s="3"/>
+      <c r="X526" s="3"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
@@ -13734,6 +14265,7 @@
       <c r="U527" s="3"/>
       <c r="V527" s="3"/>
       <c r="W527" s="3"/>
+      <c r="X527" s="3"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
@@ -13759,6 +14291,7 @@
       <c r="U528" s="3"/>
       <c r="V528" s="3"/>
       <c r="W528" s="3"/>
+      <c r="X528" s="3"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
@@ -13784,6 +14317,7 @@
       <c r="U529" s="3"/>
       <c r="V529" s="3"/>
       <c r="W529" s="3"/>
+      <c r="X529" s="3"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
@@ -13809,6 +14343,7 @@
       <c r="U530" s="3"/>
       <c r="V530" s="3"/>
       <c r="W530" s="3"/>
+      <c r="X530" s="3"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
@@ -13834,6 +14369,7 @@
       <c r="U531" s="3"/>
       <c r="V531" s="3"/>
       <c r="W531" s="3"/>
+      <c r="X531" s="3"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
@@ -13859,6 +14395,7 @@
       <c r="U532" s="3"/>
       <c r="V532" s="3"/>
       <c r="W532" s="3"/>
+      <c r="X532" s="3"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
@@ -13884,6 +14421,7 @@
       <c r="U533" s="3"/>
       <c r="V533" s="3"/>
       <c r="W533" s="3"/>
+      <c r="X533" s="3"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
@@ -13909,6 +14447,7 @@
       <c r="U534" s="3"/>
       <c r="V534" s="3"/>
       <c r="W534" s="3"/>
+      <c r="X534" s="3"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
@@ -13934,6 +14473,7 @@
       <c r="U535" s="3"/>
       <c r="V535" s="3"/>
       <c r="W535" s="3"/>
+      <c r="X535" s="3"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
@@ -13959,6 +14499,7 @@
       <c r="U536" s="3"/>
       <c r="V536" s="3"/>
       <c r="W536" s="3"/>
+      <c r="X536" s="3"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
@@ -13984,6 +14525,7 @@
       <c r="U537" s="3"/>
       <c r="V537" s="3"/>
       <c r="W537" s="3"/>
+      <c r="X537" s="3"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
@@ -14009,6 +14551,7 @@
       <c r="U538" s="3"/>
       <c r="V538" s="3"/>
       <c r="W538" s="3"/>
+      <c r="X538" s="3"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
@@ -14034,6 +14577,7 @@
       <c r="U539" s="3"/>
       <c r="V539" s="3"/>
       <c r="W539" s="3"/>
+      <c r="X539" s="3"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
@@ -14059,6 +14603,7 @@
       <c r="U540" s="3"/>
       <c r="V540" s="3"/>
       <c r="W540" s="3"/>
+      <c r="X540" s="3"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
@@ -14084,6 +14629,7 @@
       <c r="U541" s="3"/>
       <c r="V541" s="3"/>
       <c r="W541" s="3"/>
+      <c r="X541" s="3"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
@@ -14109,6 +14655,7 @@
       <c r="U542" s="3"/>
       <c r="V542" s="3"/>
       <c r="W542" s="3"/>
+      <c r="X542" s="3"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
@@ -14134,6 +14681,7 @@
       <c r="U543" s="3"/>
       <c r="V543" s="3"/>
       <c r="W543" s="3"/>
+      <c r="X543" s="3"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
@@ -14159,6 +14707,7 @@
       <c r="U544" s="3"/>
       <c r="V544" s="3"/>
       <c r="W544" s="3"/>
+      <c r="X544" s="3"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
@@ -14184,6 +14733,7 @@
       <c r="U545" s="3"/>
       <c r="V545" s="3"/>
       <c r="W545" s="3"/>
+      <c r="X545" s="3"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
@@ -14209,6 +14759,7 @@
       <c r="U546" s="3"/>
       <c r="V546" s="3"/>
       <c r="W546" s="3"/>
+      <c r="X546" s="3"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
@@ -14234,6 +14785,7 @@
       <c r="U547" s="3"/>
       <c r="V547" s="3"/>
       <c r="W547" s="3"/>
+      <c r="X547" s="3"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
@@ -14259,6 +14811,7 @@
       <c r="U548" s="3"/>
       <c r="V548" s="3"/>
       <c r="W548" s="3"/>
+      <c r="X548" s="3"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
@@ -14284,6 +14837,7 @@
       <c r="U549" s="3"/>
       <c r="V549" s="3"/>
       <c r="W549" s="3"/>
+      <c r="X549" s="3"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
@@ -14309,6 +14863,7 @@
       <c r="U550" s="3"/>
       <c r="V550" s="3"/>
       <c r="W550" s="3"/>
+      <c r="X550" s="3"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
@@ -14334,6 +14889,7 @@
       <c r="U551" s="3"/>
       <c r="V551" s="3"/>
       <c r="W551" s="3"/>
+      <c r="X551" s="3"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
@@ -14359,6 +14915,7 @@
       <c r="U552" s="3"/>
       <c r="V552" s="3"/>
       <c r="W552" s="3"/>
+      <c r="X552" s="3"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
@@ -14384,6 +14941,7 @@
       <c r="U553" s="3"/>
       <c r="V553" s="3"/>
       <c r="W553" s="3"/>
+      <c r="X553" s="3"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
@@ -14409,6 +14967,7 @@
       <c r="U554" s="3"/>
       <c r="V554" s="3"/>
       <c r="W554" s="3"/>
+      <c r="X554" s="3"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
@@ -14434,6 +14993,7 @@
       <c r="U555" s="3"/>
       <c r="V555" s="3"/>
       <c r="W555" s="3"/>
+      <c r="X555" s="3"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
@@ -14459,6 +15019,7 @@
       <c r="U556" s="3"/>
       <c r="V556" s="3"/>
       <c r="W556" s="3"/>
+      <c r="X556" s="3"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
@@ -14484,6 +15045,7 @@
       <c r="U557" s="3"/>
       <c r="V557" s="3"/>
       <c r="W557" s="3"/>
+      <c r="X557" s="3"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
@@ -14509,6 +15071,7 @@
       <c r="U558" s="3"/>
       <c r="V558" s="3"/>
       <c r="W558" s="3"/>
+      <c r="X558" s="3"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
@@ -14534,6 +15097,7 @@
       <c r="U559" s="3"/>
       <c r="V559" s="3"/>
       <c r="W559" s="3"/>
+      <c r="X559" s="3"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
@@ -14559,6 +15123,7 @@
       <c r="U560" s="3"/>
       <c r="V560" s="3"/>
       <c r="W560" s="3"/>
+      <c r="X560" s="3"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
@@ -14584,6 +15149,7 @@
       <c r="U561" s="3"/>
       <c r="V561" s="3"/>
       <c r="W561" s="3"/>
+      <c r="X561" s="3"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
@@ -14609,6 +15175,7 @@
       <c r="U562" s="3"/>
       <c r="V562" s="3"/>
       <c r="W562" s="3"/>
+      <c r="X562" s="3"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
@@ -14634,6 +15201,7 @@
       <c r="U563" s="3"/>
       <c r="V563" s="3"/>
       <c r="W563" s="3"/>
+      <c r="X563" s="3"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
@@ -14659,6 +15227,7 @@
       <c r="U564" s="3"/>
       <c r="V564" s="3"/>
       <c r="W564" s="3"/>
+      <c r="X564" s="3"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
@@ -14684,6 +15253,7 @@
       <c r="U565" s="3"/>
       <c r="V565" s="3"/>
       <c r="W565" s="3"/>
+      <c r="X565" s="3"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
@@ -14709,6 +15279,7 @@
       <c r="U566" s="3"/>
       <c r="V566" s="3"/>
       <c r="W566" s="3"/>
+      <c r="X566" s="3"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
@@ -14734,6 +15305,7 @@
       <c r="U567" s="3"/>
       <c r="V567" s="3"/>
       <c r="W567" s="3"/>
+      <c r="X567" s="3"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
@@ -14759,6 +15331,7 @@
       <c r="U568" s="3"/>
       <c r="V568" s="3"/>
       <c r="W568" s="3"/>
+      <c r="X568" s="3"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
@@ -14784,6 +15357,7 @@
       <c r="U569" s="3"/>
       <c r="V569" s="3"/>
       <c r="W569" s="3"/>
+      <c r="X569" s="3"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
@@ -14809,6 +15383,7 @@
       <c r="U570" s="3"/>
       <c r="V570" s="3"/>
       <c r="W570" s="3"/>
+      <c r="X570" s="3"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
@@ -14834,6 +15409,7 @@
       <c r="U571" s="3"/>
       <c r="V571" s="3"/>
       <c r="W571" s="3"/>
+      <c r="X571" s="3"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
@@ -14859,6 +15435,7 @@
       <c r="U572" s="3"/>
       <c r="V572" s="3"/>
       <c r="W572" s="3"/>
+      <c r="X572" s="3"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
@@ -14884,6 +15461,7 @@
       <c r="U573" s="3"/>
       <c r="V573" s="3"/>
       <c r="W573" s="3"/>
+      <c r="X573" s="3"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
@@ -14909,6 +15487,7 @@
       <c r="U574" s="3"/>
       <c r="V574" s="3"/>
       <c r="W574" s="3"/>
+      <c r="X574" s="3"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
@@ -14934,6 +15513,7 @@
       <c r="U575" s="3"/>
       <c r="V575" s="3"/>
       <c r="W575" s="3"/>
+      <c r="X575" s="3"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
@@ -14959,6 +15539,7 @@
       <c r="U576" s="3"/>
       <c r="V576" s="3"/>
       <c r="W576" s="3"/>
+      <c r="X576" s="3"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
@@ -14984,6 +15565,7 @@
       <c r="U577" s="3"/>
       <c r="V577" s="3"/>
       <c r="W577" s="3"/>
+      <c r="X577" s="3"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
@@ -15009,6 +15591,7 @@
       <c r="U578" s="3"/>
       <c r="V578" s="3"/>
       <c r="W578" s="3"/>
+      <c r="X578" s="3"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
@@ -15034,6 +15617,7 @@
       <c r="U579" s="3"/>
       <c r="V579" s="3"/>
       <c r="W579" s="3"/>
+      <c r="X579" s="3"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
@@ -15059,6 +15643,7 @@
       <c r="U580" s="3"/>
       <c r="V580" s="3"/>
       <c r="W580" s="3"/>
+      <c r="X580" s="3"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
@@ -15084,6 +15669,7 @@
       <c r="U581" s="3"/>
       <c r="V581" s="3"/>
       <c r="W581" s="3"/>
+      <c r="X581" s="3"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
@@ -15109,6 +15695,7 @@
       <c r="U582" s="3"/>
       <c r="V582" s="3"/>
       <c r="W582" s="3"/>
+      <c r="X582" s="3"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
@@ -15134,6 +15721,7 @@
       <c r="U583" s="3"/>
       <c r="V583" s="3"/>
       <c r="W583" s="3"/>
+      <c r="X583" s="3"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
@@ -15159,6 +15747,7 @@
       <c r="U584" s="3"/>
       <c r="V584" s="3"/>
       <c r="W584" s="3"/>
+      <c r="X584" s="3"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
@@ -15184,6 +15773,7 @@
       <c r="U585" s="3"/>
       <c r="V585" s="3"/>
       <c r="W585" s="3"/>
+      <c r="X585" s="3"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
@@ -15209,6 +15799,7 @@
       <c r="U586" s="3"/>
       <c r="V586" s="3"/>
       <c r="W586" s="3"/>
+      <c r="X586" s="3"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
@@ -15234,6 +15825,7 @@
       <c r="U587" s="3"/>
       <c r="V587" s="3"/>
       <c r="W587" s="3"/>
+      <c r="X587" s="3"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
@@ -15259,6 +15851,7 @@
       <c r="U588" s="3"/>
       <c r="V588" s="3"/>
       <c r="W588" s="3"/>
+      <c r="X588" s="3"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
@@ -15284,6 +15877,7 @@
       <c r="U589" s="3"/>
       <c r="V589" s="3"/>
       <c r="W589" s="3"/>
+      <c r="X589" s="3"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
@@ -15309,6 +15903,7 @@
       <c r="U590" s="3"/>
       <c r="V590" s="3"/>
       <c r="W590" s="3"/>
+      <c r="X590" s="3"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
@@ -15334,6 +15929,7 @@
       <c r="U591" s="3"/>
       <c r="V591" s="3"/>
       <c r="W591" s="3"/>
+      <c r="X591" s="3"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
@@ -15359,6 +15955,7 @@
       <c r="U592" s="3"/>
       <c r="V592" s="3"/>
       <c r="W592" s="3"/>
+      <c r="X592" s="3"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
@@ -15384,6 +15981,7 @@
       <c r="U593" s="3"/>
       <c r="V593" s="3"/>
       <c r="W593" s="3"/>
+      <c r="X593" s="3"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
@@ -15409,6 +16007,7 @@
       <c r="U594" s="3"/>
       <c r="V594" s="3"/>
       <c r="W594" s="3"/>
+      <c r="X594" s="3"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
@@ -15434,6 +16033,7 @@
       <c r="U595" s="3"/>
       <c r="V595" s="3"/>
       <c r="W595" s="3"/>
+      <c r="X595" s="3"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
@@ -15459,6 +16059,7 @@
       <c r="U596" s="3"/>
       <c r="V596" s="3"/>
       <c r="W596" s="3"/>
+      <c r="X596" s="3"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
@@ -15484,6 +16085,7 @@
       <c r="U597" s="3"/>
       <c r="V597" s="3"/>
       <c r="W597" s="3"/>
+      <c r="X597" s="3"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
@@ -15509,6 +16111,7 @@
       <c r="U598" s="3"/>
       <c r="V598" s="3"/>
       <c r="W598" s="3"/>
+      <c r="X598" s="3"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
@@ -15534,6 +16137,7 @@
       <c r="U599" s="3"/>
       <c r="V599" s="3"/>
       <c r="W599" s="3"/>
+      <c r="X599" s="3"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
@@ -15559,6 +16163,7 @@
       <c r="U600" s="3"/>
       <c r="V600" s="3"/>
       <c r="W600" s="3"/>
+      <c r="X600" s="3"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
@@ -15584,6 +16189,7 @@
       <c r="U601" s="3"/>
       <c r="V601" s="3"/>
       <c r="W601" s="3"/>
+      <c r="X601" s="3"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
@@ -15609,6 +16215,7 @@
       <c r="U602" s="3"/>
       <c r="V602" s="3"/>
       <c r="W602" s="3"/>
+      <c r="X602" s="3"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
@@ -15634,6 +16241,7 @@
       <c r="U603" s="3"/>
       <c r="V603" s="3"/>
       <c r="W603" s="3"/>
+      <c r="X603" s="3"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
@@ -15659,6 +16267,7 @@
       <c r="U604" s="3"/>
       <c r="V604" s="3"/>
       <c r="W604" s="3"/>
+      <c r="X604" s="3"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
@@ -15684,6 +16293,7 @@
       <c r="U605" s="3"/>
       <c r="V605" s="3"/>
       <c r="W605" s="3"/>
+      <c r="X605" s="3"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
@@ -15709,6 +16319,7 @@
       <c r="U606" s="3"/>
       <c r="V606" s="3"/>
       <c r="W606" s="3"/>
+      <c r="X606" s="3"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
@@ -15734,6 +16345,7 @@
       <c r="U607" s="3"/>
       <c r="V607" s="3"/>
       <c r="W607" s="3"/>
+      <c r="X607" s="3"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
@@ -15759,6 +16371,7 @@
       <c r="U608" s="3"/>
       <c r="V608" s="3"/>
       <c r="W608" s="3"/>
+      <c r="X608" s="3"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
@@ -15784,6 +16397,7 @@
       <c r="U609" s="3"/>
       <c r="V609" s="3"/>
       <c r="W609" s="3"/>
+      <c r="X609" s="3"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
@@ -15809,6 +16423,7 @@
       <c r="U610" s="3"/>
       <c r="V610" s="3"/>
       <c r="W610" s="3"/>
+      <c r="X610" s="3"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
@@ -15834,6 +16449,7 @@
       <c r="U611" s="3"/>
       <c r="V611" s="3"/>
       <c r="W611" s="3"/>
+      <c r="X611" s="3"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
@@ -15859,6 +16475,7 @@
       <c r="U612" s="3"/>
       <c r="V612" s="3"/>
       <c r="W612" s="3"/>
+      <c r="X612" s="3"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
@@ -15884,6 +16501,7 @@
       <c r="U613" s="3"/>
       <c r="V613" s="3"/>
       <c r="W613" s="3"/>
+      <c r="X613" s="3"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
@@ -15909,6 +16527,7 @@
       <c r="U614" s="3"/>
       <c r="V614" s="3"/>
       <c r="W614" s="3"/>
+      <c r="X614" s="3"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
@@ -15934,6 +16553,7 @@
       <c r="U615" s="3"/>
       <c r="V615" s="3"/>
       <c r="W615" s="3"/>
+      <c r="X615" s="3"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
@@ -15959,6 +16579,7 @@
       <c r="U616" s="3"/>
       <c r="V616" s="3"/>
       <c r="W616" s="3"/>
+      <c r="X616" s="3"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
@@ -15984,6 +16605,7 @@
       <c r="U617" s="3"/>
       <c r="V617" s="3"/>
       <c r="W617" s="3"/>
+      <c r="X617" s="3"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
@@ -16009,6 +16631,7 @@
       <c r="U618" s="3"/>
       <c r="V618" s="3"/>
       <c r="W618" s="3"/>
+      <c r="X618" s="3"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
@@ -16034,6 +16657,7 @@
       <c r="U619" s="3"/>
       <c r="V619" s="3"/>
       <c r="W619" s="3"/>
+      <c r="X619" s="3"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
@@ -16059,6 +16683,7 @@
       <c r="U620" s="3"/>
       <c r="V620" s="3"/>
       <c r="W620" s="3"/>
+      <c r="X620" s="3"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
@@ -16084,6 +16709,7 @@
       <c r="U621" s="3"/>
       <c r="V621" s="3"/>
       <c r="W621" s="3"/>
+      <c r="X621" s="3"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
@@ -16109,6 +16735,7 @@
       <c r="U622" s="3"/>
       <c r="V622" s="3"/>
       <c r="W622" s="3"/>
+      <c r="X622" s="3"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
@@ -16134,6 +16761,7 @@
       <c r="U623" s="3"/>
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
+      <c r="X623" s="3"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
@@ -16159,6 +16787,7 @@
       <c r="U624" s="3"/>
       <c r="V624" s="3"/>
       <c r="W624" s="3"/>
+      <c r="X624" s="3"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
@@ -16184,6 +16813,7 @@
       <c r="U625" s="3"/>
       <c r="V625" s="3"/>
       <c r="W625" s="3"/>
+      <c r="X625" s="3"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
@@ -16209,6 +16839,7 @@
       <c r="U626" s="3"/>
       <c r="V626" s="3"/>
       <c r="W626" s="3"/>
+      <c r="X626" s="3"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
@@ -16234,6 +16865,7 @@
       <c r="U627" s="3"/>
       <c r="V627" s="3"/>
       <c r="W627" s="3"/>
+      <c r="X627" s="3"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
@@ -16259,6 +16891,7 @@
       <c r="U628" s="3"/>
       <c r="V628" s="3"/>
       <c r="W628" s="3"/>
+      <c r="X628" s="3"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
@@ -16284,6 +16917,7 @@
       <c r="U629" s="3"/>
       <c r="V629" s="3"/>
       <c r="W629" s="3"/>
+      <c r="X629" s="3"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
@@ -16309,6 +16943,7 @@
       <c r="U630" s="3"/>
       <c r="V630" s="3"/>
       <c r="W630" s="3"/>
+      <c r="X630" s="3"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
@@ -16334,6 +16969,7 @@
       <c r="U631" s="3"/>
       <c r="V631" s="3"/>
       <c r="W631" s="3"/>
+      <c r="X631" s="3"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
@@ -16359,6 +16995,7 @@
       <c r="U632" s="3"/>
       <c r="V632" s="3"/>
       <c r="W632" s="3"/>
+      <c r="X632" s="3"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
@@ -16384,6 +17021,7 @@
       <c r="U633" s="3"/>
       <c r="V633" s="3"/>
       <c r="W633" s="3"/>
+      <c r="X633" s="3"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
@@ -16409,6 +17047,7 @@
       <c r="U634" s="3"/>
       <c r="V634" s="3"/>
       <c r="W634" s="3"/>
+      <c r="X634" s="3"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
@@ -16434,6 +17073,7 @@
       <c r="U635" s="3"/>
       <c r="V635" s="3"/>
       <c r="W635" s="3"/>
+      <c r="X635" s="3"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
@@ -16459,6 +17099,7 @@
       <c r="U636" s="3"/>
       <c r="V636" s="3"/>
       <c r="W636" s="3"/>
+      <c r="X636" s="3"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
@@ -16484,6 +17125,7 @@
       <c r="U637" s="3"/>
       <c r="V637" s="3"/>
       <c r="W637" s="3"/>
+      <c r="X637" s="3"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
@@ -16509,6 +17151,7 @@
       <c r="U638" s="3"/>
       <c r="V638" s="3"/>
       <c r="W638" s="3"/>
+      <c r="X638" s="3"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
@@ -16534,6 +17177,7 @@
       <c r="U639" s="3"/>
       <c r="V639" s="3"/>
       <c r="W639" s="3"/>
+      <c r="X639" s="3"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
@@ -16559,6 +17203,7 @@
       <c r="U640" s="3"/>
       <c r="V640" s="3"/>
       <c r="W640" s="3"/>
+      <c r="X640" s="3"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
@@ -16584,6 +17229,7 @@
       <c r="U641" s="3"/>
       <c r="V641" s="3"/>
       <c r="W641" s="3"/>
+      <c r="X641" s="3"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
@@ -16609,6 +17255,7 @@
       <c r="U642" s="3"/>
       <c r="V642" s="3"/>
       <c r="W642" s="3"/>
+      <c r="X642" s="3"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
@@ -16634,6 +17281,7 @@
       <c r="U643" s="3"/>
       <c r="V643" s="3"/>
       <c r="W643" s="3"/>
+      <c r="X643" s="3"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
@@ -16659,6 +17307,7 @@
       <c r="U644" s="3"/>
       <c r="V644" s="3"/>
       <c r="W644" s="3"/>
+      <c r="X644" s="3"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
@@ -16684,6 +17333,7 @@
       <c r="U645" s="3"/>
       <c r="V645" s="3"/>
       <c r="W645" s="3"/>
+      <c r="X645" s="3"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
@@ -16709,6 +17359,7 @@
       <c r="U646" s="3"/>
       <c r="V646" s="3"/>
       <c r="W646" s="3"/>
+      <c r="X646" s="3"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
@@ -16734,6 +17385,7 @@
       <c r="U647" s="3"/>
       <c r="V647" s="3"/>
       <c r="W647" s="3"/>
+      <c r="X647" s="3"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
@@ -16759,6 +17411,7 @@
       <c r="U648" s="3"/>
       <c r="V648" s="3"/>
       <c r="W648" s="3"/>
+      <c r="X648" s="3"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
@@ -16784,6 +17437,7 @@
       <c r="U649" s="3"/>
       <c r="V649" s="3"/>
       <c r="W649" s="3"/>
+      <c r="X649" s="3"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
@@ -16809,6 +17463,7 @@
       <c r="U650" s="3"/>
       <c r="V650" s="3"/>
       <c r="W650" s="3"/>
+      <c r="X650" s="3"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
@@ -16834,6 +17489,7 @@
       <c r="U651" s="3"/>
       <c r="V651" s="3"/>
       <c r="W651" s="3"/>
+      <c r="X651" s="3"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
@@ -16859,6 +17515,7 @@
       <c r="U652" s="3"/>
       <c r="V652" s="3"/>
       <c r="W652" s="3"/>
+      <c r="X652" s="3"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
@@ -16884,6 +17541,7 @@
       <c r="U653" s="3"/>
       <c r="V653" s="3"/>
       <c r="W653" s="3"/>
+      <c r="X653" s="3"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
@@ -16909,6 +17567,7 @@
       <c r="U654" s="3"/>
       <c r="V654" s="3"/>
       <c r="W654" s="3"/>
+      <c r="X654" s="3"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
@@ -16934,6 +17593,7 @@
       <c r="U655" s="3"/>
       <c r="V655" s="3"/>
       <c r="W655" s="3"/>
+      <c r="X655" s="3"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
@@ -16959,6 +17619,7 @@
       <c r="U656" s="3"/>
       <c r="V656" s="3"/>
       <c r="W656" s="3"/>
+      <c r="X656" s="3"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
@@ -16984,6 +17645,7 @@
       <c r="U657" s="3"/>
       <c r="V657" s="3"/>
       <c r="W657" s="3"/>
+      <c r="X657" s="3"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
@@ -17009,6 +17671,7 @@
       <c r="U658" s="3"/>
       <c r="V658" s="3"/>
       <c r="W658" s="3"/>
+      <c r="X658" s="3"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
@@ -17034,6 +17697,7 @@
       <c r="U659" s="3"/>
       <c r="V659" s="3"/>
       <c r="W659" s="3"/>
+      <c r="X659" s="3"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
@@ -17059,6 +17723,7 @@
       <c r="U660" s="3"/>
       <c r="V660" s="3"/>
       <c r="W660" s="3"/>
+      <c r="X660" s="3"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
@@ -17084,6 +17749,7 @@
       <c r="U661" s="3"/>
       <c r="V661" s="3"/>
       <c r="W661" s="3"/>
+      <c r="X661" s="3"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
@@ -17109,6 +17775,7 @@
       <c r="U662" s="3"/>
       <c r="V662" s="3"/>
       <c r="W662" s="3"/>
+      <c r="X662" s="3"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
@@ -17134,6 +17801,7 @@
       <c r="U663" s="3"/>
       <c r="V663" s="3"/>
       <c r="W663" s="3"/>
+      <c r="X663" s="3"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
@@ -17159,6 +17827,7 @@
       <c r="U664" s="3"/>
       <c r="V664" s="3"/>
       <c r="W664" s="3"/>
+      <c r="X664" s="3"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
@@ -17184,6 +17853,7 @@
       <c r="U665" s="3"/>
       <c r="V665" s="3"/>
       <c r="W665" s="3"/>
+      <c r="X665" s="3"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
@@ -17209,6 +17879,7 @@
       <c r="U666" s="3"/>
       <c r="V666" s="3"/>
       <c r="W666" s="3"/>
+      <c r="X666" s="3"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
@@ -17234,6 +17905,7 @@
       <c r="U667" s="3"/>
       <c r="V667" s="3"/>
       <c r="W667" s="3"/>
+      <c r="X667" s="3"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
@@ -17259,6 +17931,7 @@
       <c r="U668" s="3"/>
       <c r="V668" s="3"/>
       <c r="W668" s="3"/>
+      <c r="X668" s="3"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
@@ -17284,6 +17957,7 @@
       <c r="U669" s="3"/>
       <c r="V669" s="3"/>
       <c r="W669" s="3"/>
+      <c r="X669" s="3"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
@@ -17309,6 +17983,7 @@
       <c r="U670" s="3"/>
       <c r="V670" s="3"/>
       <c r="W670" s="3"/>
+      <c r="X670" s="3"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
@@ -17334,6 +18009,7 @@
       <c r="U671" s="3"/>
       <c r="V671" s="3"/>
       <c r="W671" s="3"/>
+      <c r="X671" s="3"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
@@ -17359,6 +18035,7 @@
       <c r="U672" s="3"/>
       <c r="V672" s="3"/>
       <c r="W672" s="3"/>
+      <c r="X672" s="3"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
@@ -17384,6 +18061,7 @@
       <c r="U673" s="3"/>
       <c r="V673" s="3"/>
       <c r="W673" s="3"/>
+      <c r="X673" s="3"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
@@ -17409,6 +18087,7 @@
       <c r="U674" s="3"/>
       <c r="V674" s="3"/>
       <c r="W674" s="3"/>
+      <c r="X674" s="3"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
@@ -17434,6 +18113,7 @@
       <c r="U675" s="3"/>
       <c r="V675" s="3"/>
       <c r="W675" s="3"/>
+      <c r="X675" s="3"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
@@ -17459,6 +18139,7 @@
       <c r="U676" s="3"/>
       <c r="V676" s="3"/>
       <c r="W676" s="3"/>
+      <c r="X676" s="3"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
@@ -17484,6 +18165,7 @@
       <c r="U677" s="3"/>
       <c r="V677" s="3"/>
       <c r="W677" s="3"/>
+      <c r="X677" s="3"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
@@ -17509,6 +18191,7 @@
       <c r="U678" s="3"/>
       <c r="V678" s="3"/>
       <c r="W678" s="3"/>
+      <c r="X678" s="3"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
@@ -17534,6 +18217,7 @@
       <c r="U679" s="3"/>
       <c r="V679" s="3"/>
       <c r="W679" s="3"/>
+      <c r="X679" s="3"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
@@ -17559,6 +18243,7 @@
       <c r="U680" s="3"/>
       <c r="V680" s="3"/>
       <c r="W680" s="3"/>
+      <c r="X680" s="3"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
@@ -17584,6 +18269,7 @@
       <c r="U681" s="3"/>
       <c r="V681" s="3"/>
       <c r="W681" s="3"/>
+      <c r="X681" s="3"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
@@ -17609,6 +18295,7 @@
       <c r="U682" s="3"/>
       <c r="V682" s="3"/>
       <c r="W682" s="3"/>
+      <c r="X682" s="3"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
@@ -17634,6 +18321,7 @@
       <c r="U683" s="3"/>
       <c r="V683" s="3"/>
       <c r="W683" s="3"/>
+      <c r="X683" s="3"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
@@ -17659,6 +18347,7 @@
       <c r="U684" s="3"/>
       <c r="V684" s="3"/>
       <c r="W684" s="3"/>
+      <c r="X684" s="3"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
@@ -17684,6 +18373,7 @@
       <c r="U685" s="3"/>
       <c r="V685" s="3"/>
       <c r="W685" s="3"/>
+      <c r="X685" s="3"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
@@ -17709,6 +18399,7 @@
       <c r="U686" s="3"/>
       <c r="V686" s="3"/>
       <c r="W686" s="3"/>
+      <c r="X686" s="3"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
@@ -17734,6 +18425,7 @@
       <c r="U687" s="3"/>
       <c r="V687" s="3"/>
       <c r="W687" s="3"/>
+      <c r="X687" s="3"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
@@ -17759,6 +18451,7 @@
       <c r="U688" s="3"/>
       <c r="V688" s="3"/>
       <c r="W688" s="3"/>
+      <c r="X688" s="3"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
@@ -17784,6 +18477,7 @@
       <c r="U689" s="3"/>
       <c r="V689" s="3"/>
       <c r="W689" s="3"/>
+      <c r="X689" s="3"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
@@ -17809,6 +18503,7 @@
       <c r="U690" s="3"/>
       <c r="V690" s="3"/>
       <c r="W690" s="3"/>
+      <c r="X690" s="3"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
@@ -17834,6 +18529,7 @@
       <c r="U691" s="3"/>
       <c r="V691" s="3"/>
       <c r="W691" s="3"/>
+      <c r="X691" s="3"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
@@ -17859,6 +18555,7 @@
       <c r="U692" s="3"/>
       <c r="V692" s="3"/>
       <c r="W692" s="3"/>
+      <c r="X692" s="3"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
@@ -17884,6 +18581,7 @@
       <c r="U693" s="3"/>
       <c r="V693" s="3"/>
       <c r="W693" s="3"/>
+      <c r="X693" s="3"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
@@ -17909,6 +18607,7 @@
       <c r="U694" s="3"/>
       <c r="V694" s="3"/>
       <c r="W694" s="3"/>
+      <c r="X694" s="3"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
@@ -17934,6 +18633,7 @@
       <c r="U695" s="3"/>
       <c r="V695" s="3"/>
       <c r="W695" s="3"/>
+      <c r="X695" s="3"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
@@ -17959,6 +18659,7 @@
       <c r="U696" s="3"/>
       <c r="V696" s="3"/>
       <c r="W696" s="3"/>
+      <c r="X696" s="3"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
@@ -17984,6 +18685,7 @@
       <c r="U697" s="3"/>
       <c r="V697" s="3"/>
       <c r="W697" s="3"/>
+      <c r="X697" s="3"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
@@ -18009,6 +18711,7 @@
       <c r="U698" s="3"/>
       <c r="V698" s="3"/>
       <c r="W698" s="3"/>
+      <c r="X698" s="3"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
@@ -18034,6 +18737,7 @@
       <c r="U699" s="3"/>
       <c r="V699" s="3"/>
       <c r="W699" s="3"/>
+      <c r="X699" s="3"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
@@ -18059,6 +18763,7 @@
       <c r="U700" s="3"/>
       <c r="V700" s="3"/>
       <c r="W700" s="3"/>
+      <c r="X700" s="3"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
@@ -18084,6 +18789,7 @@
       <c r="U701" s="3"/>
       <c r="V701" s="3"/>
       <c r="W701" s="3"/>
+      <c r="X701" s="3"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
@@ -18109,6 +18815,7 @@
       <c r="U702" s="3"/>
       <c r="V702" s="3"/>
       <c r="W702" s="3"/>
+      <c r="X702" s="3"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
@@ -18134,6 +18841,7 @@
       <c r="U703" s="3"/>
       <c r="V703" s="3"/>
       <c r="W703" s="3"/>
+      <c r="X703" s="3"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
@@ -18159,6 +18867,7 @@
       <c r="U704" s="3"/>
       <c r="V704" s="3"/>
       <c r="W704" s="3"/>
+      <c r="X704" s="3"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
@@ -18184,6 +18893,7 @@
       <c r="U705" s="3"/>
       <c r="V705" s="3"/>
       <c r="W705" s="3"/>
+      <c r="X705" s="3"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
@@ -18209,6 +18919,7 @@
       <c r="U706" s="3"/>
       <c r="V706" s="3"/>
       <c r="W706" s="3"/>
+      <c r="X706" s="3"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
@@ -18234,6 +18945,7 @@
       <c r="U707" s="3"/>
       <c r="V707" s="3"/>
       <c r="W707" s="3"/>
+      <c r="X707" s="3"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
@@ -18259,6 +18971,7 @@
       <c r="U708" s="3"/>
       <c r="V708" s="3"/>
       <c r="W708" s="3"/>
+      <c r="X708" s="3"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
@@ -18284,6 +18997,7 @@
       <c r="U709" s="3"/>
       <c r="V709" s="3"/>
       <c r="W709" s="3"/>
+      <c r="X709" s="3"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
@@ -18309,6 +19023,7 @@
       <c r="U710" s="3"/>
       <c r="V710" s="3"/>
       <c r="W710" s="3"/>
+      <c r="X710" s="3"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
@@ -18334,6 +19049,7 @@
       <c r="U711" s="3"/>
       <c r="V711" s="3"/>
       <c r="W711" s="3"/>
+      <c r="X711" s="3"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
@@ -18359,6 +19075,7 @@
       <c r="U712" s="3"/>
       <c r="V712" s="3"/>
       <c r="W712" s="3"/>
+      <c r="X712" s="3"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
@@ -18384,6 +19101,7 @@
       <c r="U713" s="3"/>
       <c r="V713" s="3"/>
       <c r="W713" s="3"/>
+      <c r="X713" s="3"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
@@ -18409,6 +19127,7 @@
       <c r="U714" s="3"/>
       <c r="V714" s="3"/>
       <c r="W714" s="3"/>
+      <c r="X714" s="3"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
@@ -18434,6 +19153,7 @@
       <c r="U715" s="3"/>
       <c r="V715" s="3"/>
       <c r="W715" s="3"/>
+      <c r="X715" s="3"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
@@ -18459,6 +19179,7 @@
       <c r="U716" s="3"/>
       <c r="V716" s="3"/>
       <c r="W716" s="3"/>
+      <c r="X716" s="3"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
@@ -18484,6 +19205,7 @@
       <c r="U717" s="3"/>
       <c r="V717" s="3"/>
       <c r="W717" s="3"/>
+      <c r="X717" s="3"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
@@ -18509,6 +19231,7 @@
       <c r="U718" s="3"/>
       <c r="V718" s="3"/>
       <c r="W718" s="3"/>
+      <c r="X718" s="3"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
@@ -18534,6 +19257,7 @@
       <c r="U719" s="3"/>
       <c r="V719" s="3"/>
       <c r="W719" s="3"/>
+      <c r="X719" s="3"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
@@ -18559,6 +19283,7 @@
       <c r="U720" s="3"/>
       <c r="V720" s="3"/>
       <c r="W720" s="3"/>
+      <c r="X720" s="3"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
@@ -18584,6 +19309,7 @@
       <c r="U721" s="3"/>
       <c r="V721" s="3"/>
       <c r="W721" s="3"/>
+      <c r="X721" s="3"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
@@ -18609,6 +19335,7 @@
       <c r="U722" s="3"/>
       <c r="V722" s="3"/>
       <c r="W722" s="3"/>
+      <c r="X722" s="3"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
@@ -18634,6 +19361,7 @@
       <c r="U723" s="3"/>
       <c r="V723" s="3"/>
       <c r="W723" s="3"/>
+      <c r="X723" s="3"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
@@ -18659,6 +19387,7 @@
       <c r="U724" s="3"/>
       <c r="V724" s="3"/>
       <c r="W724" s="3"/>
+      <c r="X724" s="3"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
@@ -18684,6 +19413,7 @@
       <c r="U725" s="3"/>
       <c r="V725" s="3"/>
       <c r="W725" s="3"/>
+      <c r="X725" s="3"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
@@ -18709,6 +19439,7 @@
       <c r="U726" s="3"/>
       <c r="V726" s="3"/>
       <c r="W726" s="3"/>
+      <c r="X726" s="3"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
@@ -18734,6 +19465,7 @@
       <c r="U727" s="3"/>
       <c r="V727" s="3"/>
       <c r="W727" s="3"/>
+      <c r="X727" s="3"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
@@ -18759,6 +19491,7 @@
       <c r="U728" s="3"/>
       <c r="V728" s="3"/>
       <c r="W728" s="3"/>
+      <c r="X728" s="3"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
@@ -18784,6 +19517,7 @@
       <c r="U729" s="3"/>
       <c r="V729" s="3"/>
       <c r="W729" s="3"/>
+      <c r="X729" s="3"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
@@ -18809,6 +19543,7 @@
       <c r="U730" s="3"/>
       <c r="V730" s="3"/>
       <c r="W730" s="3"/>
+      <c r="X730" s="3"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
@@ -18834,6 +19569,7 @@
       <c r="U731" s="3"/>
       <c r="V731" s="3"/>
       <c r="W731" s="3"/>
+      <c r="X731" s="3"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
@@ -18859,6 +19595,7 @@
       <c r="U732" s="3"/>
       <c r="V732" s="3"/>
       <c r="W732" s="3"/>
+      <c r="X732" s="3"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
@@ -18884,6 +19621,7 @@
       <c r="U733" s="3"/>
       <c r="V733" s="3"/>
       <c r="W733" s="3"/>
+      <c r="X733" s="3"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
@@ -18909,6 +19647,7 @@
       <c r="U734" s="3"/>
       <c r="V734" s="3"/>
       <c r="W734" s="3"/>
+      <c r="X734" s="3"/>
     </row>
     <row r="735">
       <c r="A735" s="3"/>
@@ -18934,6 +19673,7 @@
       <c r="U735" s="3"/>
       <c r="V735" s="3"/>
       <c r="W735" s="3"/>
+      <c r="X735" s="3"/>
     </row>
     <row r="736">
       <c r="A736" s="3"/>
@@ -18959,6 +19699,7 @@
       <c r="U736" s="3"/>
       <c r="V736" s="3"/>
       <c r="W736" s="3"/>
+      <c r="X736" s="3"/>
     </row>
     <row r="737">
       <c r="A737" s="3"/>
@@ -18984,6 +19725,7 @@
       <c r="U737" s="3"/>
       <c r="V737" s="3"/>
       <c r="W737" s="3"/>
+      <c r="X737" s="3"/>
     </row>
     <row r="738">
       <c r="A738" s="3"/>
@@ -19009,6 +19751,7 @@
       <c r="U738" s="3"/>
       <c r="V738" s="3"/>
       <c r="W738" s="3"/>
+      <c r="X738" s="3"/>
     </row>
     <row r="739">
       <c r="A739" s="3"/>
@@ -19034,6 +19777,7 @@
       <c r="U739" s="3"/>
       <c r="V739" s="3"/>
       <c r="W739" s="3"/>
+      <c r="X739" s="3"/>
     </row>
     <row r="740">
       <c r="A740" s="3"/>
@@ -19059,6 +19803,7 @@
       <c r="U740" s="3"/>
       <c r="V740" s="3"/>
       <c r="W740" s="3"/>
+      <c r="X740" s="3"/>
     </row>
     <row r="741">
       <c r="A741" s="3"/>
@@ -19084,6 +19829,7 @@
       <c r="U741" s="3"/>
       <c r="V741" s="3"/>
       <c r="W741" s="3"/>
+      <c r="X741" s="3"/>
     </row>
     <row r="742">
       <c r="A742" s="3"/>
@@ -19109,6 +19855,7 @@
       <c r="U742" s="3"/>
       <c r="V742" s="3"/>
       <c r="W742" s="3"/>
+      <c r="X742" s="3"/>
     </row>
     <row r="743">
       <c r="A743" s="3"/>
@@ -19134,6 +19881,7 @@
       <c r="U743" s="3"/>
       <c r="V743" s="3"/>
       <c r="W743" s="3"/>
+      <c r="X743" s="3"/>
     </row>
     <row r="744">
       <c r="A744" s="3"/>
@@ -19159,6 +19907,7 @@
       <c r="U744" s="3"/>
       <c r="V744" s="3"/>
       <c r="W744" s="3"/>
+      <c r="X744" s="3"/>
     </row>
     <row r="745">
       <c r="A745" s="3"/>
@@ -19184,6 +19933,7 @@
       <c r="U745" s="3"/>
       <c r="V745" s="3"/>
       <c r="W745" s="3"/>
+      <c r="X745" s="3"/>
     </row>
     <row r="746">
       <c r="A746" s="3"/>
@@ -19209,6 +19959,7 @@
       <c r="U746" s="3"/>
       <c r="V746" s="3"/>
       <c r="W746" s="3"/>
+      <c r="X746" s="3"/>
     </row>
     <row r="747">
       <c r="A747" s="3"/>
@@ -19234,6 +19985,7 @@
       <c r="U747" s="3"/>
       <c r="V747" s="3"/>
       <c r="W747" s="3"/>
+      <c r="X747" s="3"/>
     </row>
     <row r="748">
       <c r="A748" s="3"/>
@@ -19259,6 +20011,7 @@
       <c r="U748" s="3"/>
       <c r="V748" s="3"/>
       <c r="W748" s="3"/>
+      <c r="X748" s="3"/>
     </row>
     <row r="749">
       <c r="A749" s="3"/>
@@ -19284,6 +20037,7 @@
       <c r="U749" s="3"/>
       <c r="V749" s="3"/>
       <c r="W749" s="3"/>
+      <c r="X749" s="3"/>
     </row>
     <row r="750">
       <c r="A750" s="3"/>
@@ -19309,6 +20063,7 @@
       <c r="U750" s="3"/>
       <c r="V750" s="3"/>
       <c r="W750" s="3"/>
+      <c r="X750" s="3"/>
     </row>
     <row r="751">
       <c r="A751" s="3"/>
@@ -19334,6 +20089,7 @@
       <c r="U751" s="3"/>
       <c r="V751" s="3"/>
       <c r="W751" s="3"/>
+      <c r="X751" s="3"/>
     </row>
     <row r="752">
       <c r="A752" s="3"/>
@@ -19359,6 +20115,7 @@
       <c r="U752" s="3"/>
       <c r="V752" s="3"/>
       <c r="W752" s="3"/>
+      <c r="X752" s="3"/>
     </row>
     <row r="753">
       <c r="A753" s="3"/>
@@ -19384,6 +20141,7 @@
       <c r="U753" s="3"/>
       <c r="V753" s="3"/>
       <c r="W753" s="3"/>
+      <c r="X753" s="3"/>
     </row>
     <row r="754">
       <c r="A754" s="3"/>
@@ -19409,6 +20167,7 @@
       <c r="U754" s="3"/>
       <c r="V754" s="3"/>
       <c r="W754" s="3"/>
+      <c r="X754" s="3"/>
     </row>
     <row r="755">
       <c r="A755" s="3"/>
@@ -19434,6 +20193,7 @@
       <c r="U755" s="3"/>
       <c r="V755" s="3"/>
       <c r="W755" s="3"/>
+      <c r="X755" s="3"/>
     </row>
     <row r="756">
       <c r="A756" s="3"/>
@@ -19459,6 +20219,7 @@
       <c r="U756" s="3"/>
       <c r="V756" s="3"/>
       <c r="W756" s="3"/>
+      <c r="X756" s="3"/>
     </row>
     <row r="757">
       <c r="A757" s="3"/>
@@ -19484,6 +20245,7 @@
       <c r="U757" s="3"/>
       <c r="V757" s="3"/>
       <c r="W757" s="3"/>
+      <c r="X757" s="3"/>
     </row>
     <row r="758">
       <c r="A758" s="3"/>
@@ -19509,6 +20271,7 @@
       <c r="U758" s="3"/>
       <c r="V758" s="3"/>
       <c r="W758" s="3"/>
+      <c r="X758" s="3"/>
     </row>
     <row r="759">
       <c r="A759" s="3"/>
@@ -19534,6 +20297,7 @@
       <c r="U759" s="3"/>
       <c r="V759" s="3"/>
       <c r="W759" s="3"/>
+      <c r="X759" s="3"/>
     </row>
     <row r="760">
       <c r="A760" s="3"/>
@@ -19559,6 +20323,7 @@
       <c r="U760" s="3"/>
       <c r="V760" s="3"/>
       <c r="W760" s="3"/>
+      <c r="X760" s="3"/>
     </row>
     <row r="761">
       <c r="A761" s="3"/>
@@ -19584,6 +20349,7 @@
       <c r="U761" s="3"/>
       <c r="V761" s="3"/>
       <c r="W761" s="3"/>
+      <c r="X761" s="3"/>
     </row>
     <row r="762">
       <c r="A762" s="3"/>
@@ -19609,6 +20375,7 @@
       <c r="U762" s="3"/>
       <c r="V762" s="3"/>
       <c r="W762" s="3"/>
+      <c r="X762" s="3"/>
     </row>
     <row r="763">
       <c r="A763" s="3"/>
@@ -19634,6 +20401,7 @@
       <c r="U763" s="3"/>
       <c r="V763" s="3"/>
       <c r="W763" s="3"/>
+      <c r="X763" s="3"/>
     </row>
     <row r="764">
       <c r="A764" s="3"/>
@@ -19659,6 +20427,7 @@
       <c r="U764" s="3"/>
       <c r="V764" s="3"/>
       <c r="W764" s="3"/>
+      <c r="X764" s="3"/>
     </row>
     <row r="765">
       <c r="A765" s="3"/>
@@ -19684,6 +20453,7 @@
       <c r="U765" s="3"/>
       <c r="V765" s="3"/>
       <c r="W765" s="3"/>
+      <c r="X765" s="3"/>
     </row>
     <row r="766">
       <c r="A766" s="3"/>
@@ -19709,6 +20479,7 @@
       <c r="U766" s="3"/>
       <c r="V766" s="3"/>
       <c r="W766" s="3"/>
+      <c r="X766" s="3"/>
     </row>
     <row r="767">
       <c r="A767" s="3"/>
@@ -19734,6 +20505,7 @@
       <c r="U767" s="3"/>
       <c r="V767" s="3"/>
       <c r="W767" s="3"/>
+      <c r="X767" s="3"/>
     </row>
     <row r="768">
       <c r="A768" s="3"/>
@@ -19759,6 +20531,7 @@
       <c r="U768" s="3"/>
       <c r="V768" s="3"/>
       <c r="W768" s="3"/>
+      <c r="X768" s="3"/>
     </row>
     <row r="769">
       <c r="A769" s="3"/>
@@ -19784,6 +20557,7 @@
       <c r="U769" s="3"/>
       <c r="V769" s="3"/>
       <c r="W769" s="3"/>
+      <c r="X769" s="3"/>
     </row>
     <row r="770">
       <c r="A770" s="3"/>
@@ -19809,6 +20583,7 @@
       <c r="U770" s="3"/>
       <c r="V770" s="3"/>
       <c r="W770" s="3"/>
+      <c r="X770" s="3"/>
     </row>
     <row r="771">
       <c r="A771" s="3"/>
@@ -19834,6 +20609,7 @@
       <c r="U771" s="3"/>
       <c r="V771" s="3"/>
       <c r="W771" s="3"/>
+      <c r="X771" s="3"/>
     </row>
     <row r="772">
       <c r="A772" s="3"/>
@@ -19859,6 +20635,7 @@
       <c r="U772" s="3"/>
       <c r="V772" s="3"/>
       <c r="W772" s="3"/>
+      <c r="X772" s="3"/>
     </row>
     <row r="773">
       <c r="A773" s="3"/>
@@ -19884,6 +20661,7 @@
       <c r="U773" s="3"/>
       <c r="V773" s="3"/>
       <c r="W773" s="3"/>
+      <c r="X773" s="3"/>
     </row>
     <row r="774">
       <c r="A774" s="3"/>
@@ -19909,6 +20687,7 @@
       <c r="U774" s="3"/>
       <c r="V774" s="3"/>
       <c r="W774" s="3"/>
+      <c r="X774" s="3"/>
     </row>
     <row r="775">
       <c r="A775" s="3"/>
@@ -19934,6 +20713,7 @@
       <c r="U775" s="3"/>
       <c r="V775" s="3"/>
       <c r="W775" s="3"/>
+      <c r="X775" s="3"/>
     </row>
     <row r="776">
       <c r="A776" s="3"/>
@@ -19959,6 +20739,7 @@
       <c r="U776" s="3"/>
       <c r="V776" s="3"/>
       <c r="W776" s="3"/>
+      <c r="X776" s="3"/>
     </row>
     <row r="777">
       <c r="A777" s="3"/>
@@ -19984,6 +20765,7 @@
       <c r="U777" s="3"/>
       <c r="V777" s="3"/>
       <c r="W777" s="3"/>
+      <c r="X777" s="3"/>
     </row>
     <row r="778">
       <c r="A778" s="3"/>
@@ -20009,6 +20791,7 @@
       <c r="U778" s="3"/>
       <c r="V778" s="3"/>
       <c r="W778" s="3"/>
+      <c r="X778" s="3"/>
     </row>
     <row r="779">
       <c r="A779" s="3"/>
@@ -20034,6 +20817,7 @@
       <c r="U779" s="3"/>
       <c r="V779" s="3"/>
       <c r="W779" s="3"/>
+      <c r="X779" s="3"/>
     </row>
     <row r="780">
       <c r="A780" s="3"/>
@@ -20059,6 +20843,7 @@
       <c r="U780" s="3"/>
       <c r="V780" s="3"/>
       <c r="W780" s="3"/>
+      <c r="X780" s="3"/>
     </row>
     <row r="781">
       <c r="A781" s="3"/>
@@ -20084,6 +20869,7 @@
       <c r="U781" s="3"/>
       <c r="V781" s="3"/>
       <c r="W781" s="3"/>
+      <c r="X781" s="3"/>
     </row>
     <row r="782">
       <c r="A782" s="3"/>
@@ -20109,6 +20895,7 @@
       <c r="U782" s="3"/>
       <c r="V782" s="3"/>
       <c r="W782" s="3"/>
+      <c r="X782" s="3"/>
     </row>
     <row r="783">
       <c r="A783" s="3"/>
@@ -20134,6 +20921,7 @@
       <c r="U783" s="3"/>
       <c r="V783" s="3"/>
       <c r="W783" s="3"/>
+      <c r="X783" s="3"/>
     </row>
     <row r="784">
       <c r="A784" s="3"/>
@@ -20159,6 +20947,7 @@
       <c r="U784" s="3"/>
       <c r="V784" s="3"/>
       <c r="W784" s="3"/>
+      <c r="X784" s="3"/>
     </row>
     <row r="785">
       <c r="A785" s="3"/>
@@ -20184,6 +20973,7 @@
       <c r="U785" s="3"/>
       <c r="V785" s="3"/>
       <c r="W785" s="3"/>
+      <c r="X785" s="3"/>
     </row>
     <row r="786">
       <c r="A786" s="3"/>
@@ -20209,6 +20999,7 @@
       <c r="U786" s="3"/>
       <c r="V786" s="3"/>
       <c r="W786" s="3"/>
+      <c r="X786" s="3"/>
     </row>
     <row r="787">
       <c r="A787" s="3"/>
@@ -20234,6 +21025,7 @@
       <c r="U787" s="3"/>
       <c r="V787" s="3"/>
       <c r="W787" s="3"/>
+      <c r="X787" s="3"/>
     </row>
     <row r="788">
       <c r="A788" s="3"/>
@@ -20259,6 +21051,7 @@
       <c r="U788" s="3"/>
       <c r="V788" s="3"/>
       <c r="W788" s="3"/>
+      <c r="X788" s="3"/>
     </row>
     <row r="789">
       <c r="A789" s="3"/>
@@ -20284,6 +21077,7 @@
       <c r="U789" s="3"/>
       <c r="V789" s="3"/>
       <c r="W789" s="3"/>
+      <c r="X789" s="3"/>
     </row>
     <row r="790">
       <c r="A790" s="3"/>
@@ -20309,6 +21103,7 @@
       <c r="U790" s="3"/>
       <c r="V790" s="3"/>
       <c r="W790" s="3"/>
+      <c r="X790" s="3"/>
     </row>
     <row r="791">
       <c r="A791" s="3"/>
@@ -20334,6 +21129,7 @@
       <c r="U791" s="3"/>
       <c r="V791" s="3"/>
       <c r="W791" s="3"/>
+      <c r="X791" s="3"/>
     </row>
     <row r="792">
       <c r="A792" s="3"/>
@@ -20359,6 +21155,7 @@
       <c r="U792" s="3"/>
       <c r="V792" s="3"/>
       <c r="W792" s="3"/>
+      <c r="X792" s="3"/>
     </row>
     <row r="793">
       <c r="A793" s="3"/>
@@ -20384,6 +21181,7 @@
       <c r="U793" s="3"/>
       <c r="V793" s="3"/>
       <c r="W793" s="3"/>
+      <c r="X793" s="3"/>
     </row>
     <row r="794">
       <c r="A794" s="3"/>
@@ -20409,6 +21207,7 @@
       <c r="U794" s="3"/>
       <c r="V794" s="3"/>
       <c r="W794" s="3"/>
+      <c r="X794" s="3"/>
     </row>
     <row r="795">
       <c r="A795" s="3"/>
@@ -20434,6 +21233,7 @@
       <c r="U795" s="3"/>
       <c r="V795" s="3"/>
       <c r="W795" s="3"/>
+      <c r="X795" s="3"/>
     </row>
     <row r="796">
       <c r="A796" s="3"/>
@@ -20459,6 +21259,7 @@
       <c r="U796" s="3"/>
       <c r="V796" s="3"/>
       <c r="W796" s="3"/>
+      <c r="X796" s="3"/>
     </row>
     <row r="797">
       <c r="A797" s="3"/>
@@ -20484,6 +21285,7 @@
       <c r="U797" s="3"/>
       <c r="V797" s="3"/>
       <c r="W797" s="3"/>
+      <c r="X797" s="3"/>
     </row>
     <row r="798">
       <c r="A798" s="3"/>
@@ -20509,6 +21311,7 @@
       <c r="U798" s="3"/>
       <c r="V798" s="3"/>
       <c r="W798" s="3"/>
+      <c r="X798" s="3"/>
     </row>
     <row r="799">
       <c r="A799" s="3"/>
@@ -20534,6 +21337,7 @@
       <c r="U799" s="3"/>
       <c r="V799" s="3"/>
       <c r="W799" s="3"/>
+      <c r="X799" s="3"/>
     </row>
     <row r="800">
       <c r="A800" s="3"/>
@@ -20559,6 +21363,7 @@
       <c r="U800" s="3"/>
       <c r="V800" s="3"/>
       <c r="W800" s="3"/>
+      <c r="X800" s="3"/>
     </row>
     <row r="801">
       <c r="A801" s="3"/>
@@ -20584,6 +21389,7 @@
       <c r="U801" s="3"/>
       <c r="V801" s="3"/>
       <c r="W801" s="3"/>
+      <c r="X801" s="3"/>
     </row>
     <row r="802">
       <c r="A802" s="3"/>
@@ -20609,6 +21415,7 @@
       <c r="U802" s="3"/>
       <c r="V802" s="3"/>
       <c r="W802" s="3"/>
+      <c r="X802" s="3"/>
     </row>
     <row r="803">
       <c r="A803" s="3"/>
@@ -20634,6 +21441,7 @@
       <c r="U803" s="3"/>
       <c r="V803" s="3"/>
       <c r="W803" s="3"/>
+      <c r="X803" s="3"/>
     </row>
     <row r="804">
       <c r="A804" s="3"/>
@@ -20659,6 +21467,7 @@
       <c r="U804" s="3"/>
       <c r="V804" s="3"/>
       <c r="W804" s="3"/>
+      <c r="X804" s="3"/>
     </row>
     <row r="805">
       <c r="A805" s="3"/>
@@ -20684,6 +21493,7 @@
       <c r="U805" s="3"/>
       <c r="V805" s="3"/>
       <c r="W805" s="3"/>
+      <c r="X805" s="3"/>
     </row>
     <row r="806">
       <c r="A806" s="3"/>
@@ -20709,6 +21519,7 @@
       <c r="U806" s="3"/>
       <c r="V806" s="3"/>
       <c r="W806" s="3"/>
+      <c r="X806" s="3"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
@@ -20734,6 +21545,7 @@
       <c r="U807" s="3"/>
       <c r="V807" s="3"/>
       <c r="W807" s="3"/>
+      <c r="X807" s="3"/>
     </row>
     <row r="808">
       <c r="A808" s="3"/>
@@ -20759,6 +21571,7 @@
       <c r="U808" s="3"/>
       <c r="V808" s="3"/>
       <c r="W808" s="3"/>
+      <c r="X808" s="3"/>
     </row>
     <row r="809">
       <c r="A809" s="3"/>
@@ -20784,6 +21597,7 @@
       <c r="U809" s="3"/>
       <c r="V809" s="3"/>
       <c r="W809" s="3"/>
+      <c r="X809" s="3"/>
     </row>
     <row r="810">
       <c r="A810" s="3"/>
@@ -20809,6 +21623,7 @@
       <c r="U810" s="3"/>
       <c r="V810" s="3"/>
       <c r="W810" s="3"/>
+      <c r="X810" s="3"/>
     </row>
     <row r="811">
       <c r="A811" s="3"/>
@@ -20834,6 +21649,7 @@
       <c r="U811" s="3"/>
       <c r="V811" s="3"/>
       <c r="W811" s="3"/>
+      <c r="X811" s="3"/>
     </row>
     <row r="812">
       <c r="A812" s="3"/>
@@ -20859,6 +21675,7 @@
       <c r="U812" s="3"/>
       <c r="V812" s="3"/>
       <c r="W812" s="3"/>
+      <c r="X812" s="3"/>
     </row>
     <row r="813">
       <c r="A813" s="3"/>
@@ -20884,6 +21701,7 @@
       <c r="U813" s="3"/>
       <c r="V813" s="3"/>
       <c r="W813" s="3"/>
+      <c r="X813" s="3"/>
     </row>
     <row r="814">
       <c r="A814" s="3"/>
@@ -20909,6 +21727,7 @@
       <c r="U814" s="3"/>
       <c r="V814" s="3"/>
       <c r="W814" s="3"/>
+      <c r="X814" s="3"/>
     </row>
     <row r="815">
       <c r="A815" s="3"/>
@@ -20934,6 +21753,7 @@
       <c r="U815" s="3"/>
       <c r="V815" s="3"/>
       <c r="W815" s="3"/>
+      <c r="X815" s="3"/>
     </row>
     <row r="816">
       <c r="A816" s="3"/>
@@ -20959,6 +21779,7 @@
       <c r="U816" s="3"/>
       <c r="V816" s="3"/>
       <c r="W816" s="3"/>
+      <c r="X816" s="3"/>
     </row>
     <row r="817">
       <c r="A817" s="3"/>
@@ -20984,6 +21805,7 @@
       <c r="U817" s="3"/>
       <c r="V817" s="3"/>
       <c r="W817" s="3"/>
+      <c r="X817" s="3"/>
     </row>
     <row r="818">
       <c r="A818" s="3"/>
@@ -21009,6 +21831,7 @@
       <c r="U818" s="3"/>
       <c r="V818" s="3"/>
       <c r="W818" s="3"/>
+      <c r="X818" s="3"/>
     </row>
     <row r="819">
       <c r="A819" s="3"/>
@@ -21034,6 +21857,7 @@
       <c r="U819" s="3"/>
       <c r="V819" s="3"/>
       <c r="W819" s="3"/>
+      <c r="X819" s="3"/>
     </row>
     <row r="820">
       <c r="A820" s="3"/>
@@ -21059,6 +21883,7 @@
       <c r="U820" s="3"/>
       <c r="V820" s="3"/>
       <c r="W820" s="3"/>
+      <c r="X820" s="3"/>
     </row>
     <row r="821">
       <c r="A821" s="3"/>
@@ -21084,6 +21909,7 @@
       <c r="U821" s="3"/>
       <c r="V821" s="3"/>
       <c r="W821" s="3"/>
+      <c r="X821" s="3"/>
     </row>
     <row r="822">
       <c r="A822" s="3"/>
@@ -21109,6 +21935,7 @@
       <c r="U822" s="3"/>
       <c r="V822" s="3"/>
       <c r="W822" s="3"/>
+      <c r="X822" s="3"/>
     </row>
     <row r="823">
       <c r="A823" s="3"/>
@@ -21134,6 +21961,7 @@
       <c r="U823" s="3"/>
       <c r="V823" s="3"/>
       <c r="W823" s="3"/>
+      <c r="X823" s="3"/>
     </row>
     <row r="824">
       <c r="A824" s="3"/>
@@ -21159,6 +21987,7 @@
       <c r="U824" s="3"/>
       <c r="V824" s="3"/>
       <c r="W824" s="3"/>
+      <c r="X824" s="3"/>
     </row>
     <row r="825">
       <c r="A825" s="3"/>
@@ -21184,6 +22013,7 @@
       <c r="U825" s="3"/>
       <c r="V825" s="3"/>
       <c r="W825" s="3"/>
+      <c r="X825" s="3"/>
     </row>
     <row r="826">
       <c r="A826" s="3"/>
@@ -21209,6 +22039,7 @@
       <c r="U826" s="3"/>
       <c r="V826" s="3"/>
       <c r="W826" s="3"/>
+      <c r="X826" s="3"/>
     </row>
     <row r="827">
       <c r="A827" s="3"/>
@@ -21234,6 +22065,7 @@
       <c r="U827" s="3"/>
       <c r="V827" s="3"/>
       <c r="W827" s="3"/>
+      <c r="X827" s="3"/>
     </row>
     <row r="828">
       <c r="A828" s="3"/>
@@ -21259,6 +22091,7 @@
       <c r="U828" s="3"/>
       <c r="V828" s="3"/>
       <c r="W828" s="3"/>
+      <c r="X828" s="3"/>
     </row>
     <row r="829">
       <c r="A829" s="3"/>
@@ -21284,6 +22117,7 @@
       <c r="U829" s="3"/>
       <c r="V829" s="3"/>
       <c r="W829" s="3"/>
+      <c r="X829" s="3"/>
     </row>
     <row r="830">
       <c r="A830" s="3"/>
@@ -21309,6 +22143,7 @@
       <c r="U830" s="3"/>
       <c r="V830" s="3"/>
       <c r="W830" s="3"/>
+      <c r="X830" s="3"/>
     </row>
     <row r="831">
       <c r="A831" s="3"/>
@@ -21334,6 +22169,7 @@
       <c r="U831" s="3"/>
       <c r="V831" s="3"/>
       <c r="W831" s="3"/>
+      <c r="X831" s="3"/>
     </row>
     <row r="832">
       <c r="A832" s="3"/>
@@ -21359,6 +22195,7 @@
       <c r="U832" s="3"/>
       <c r="V832" s="3"/>
       <c r="W832" s="3"/>
+      <c r="X832" s="3"/>
     </row>
     <row r="833">
       <c r="A833" s="3"/>
@@ -21384,6 +22221,7 @@
       <c r="U833" s="3"/>
       <c r="V833" s="3"/>
       <c r="W833" s="3"/>
+      <c r="X833" s="3"/>
     </row>
     <row r="834">
       <c r="A834" s="3"/>
@@ -21409,6 +22247,7 @@
       <c r="U834" s="3"/>
       <c r="V834" s="3"/>
       <c r="W834" s="3"/>
+      <c r="X834" s="3"/>
     </row>
     <row r="835">
       <c r="A835" s="3"/>
@@ -21434,6 +22273,7 @@
       <c r="U835" s="3"/>
       <c r="V835" s="3"/>
       <c r="W835" s="3"/>
+      <c r="X835" s="3"/>
     </row>
     <row r="836">
       <c r="A836" s="3"/>
@@ -21459,6 +22299,7 @@
       <c r="U836" s="3"/>
       <c r="V836" s="3"/>
       <c r="W836" s="3"/>
+      <c r="X836" s="3"/>
     </row>
     <row r="837">
       <c r="A837" s="3"/>
@@ -21484,6 +22325,7 @@
       <c r="U837" s="3"/>
       <c r="V837" s="3"/>
       <c r="W837" s="3"/>
+      <c r="X837" s="3"/>
     </row>
     <row r="838">
       <c r="A838" s="3"/>
@@ -21509,6 +22351,7 @@
       <c r="U838" s="3"/>
       <c r="V838" s="3"/>
       <c r="W838" s="3"/>
+      <c r="X838" s="3"/>
     </row>
     <row r="839">
       <c r="A839" s="3"/>
@@ -21534,6 +22377,7 @@
       <c r="U839" s="3"/>
       <c r="V839" s="3"/>
       <c r="W839" s="3"/>
+      <c r="X839" s="3"/>
     </row>
     <row r="840">
       <c r="A840" s="3"/>
@@ -21559,6 +22403,7 @@
       <c r="U840" s="3"/>
       <c r="V840" s="3"/>
       <c r="W840" s="3"/>
+      <c r="X840" s="3"/>
     </row>
     <row r="841">
       <c r="A841" s="3"/>
@@ -21584,6 +22429,7 @@
       <c r="U841" s="3"/>
       <c r="V841" s="3"/>
       <c r="W841" s="3"/>
+      <c r="X841" s="3"/>
     </row>
     <row r="842">
       <c r="A842" s="3"/>
@@ -21609,6 +22455,7 @@
       <c r="U842" s="3"/>
       <c r="V842" s="3"/>
       <c r="W842" s="3"/>
+      <c r="X842" s="3"/>
     </row>
     <row r="843">
       <c r="A843" s="3"/>
@@ -21634,6 +22481,7 @@
       <c r="U843" s="3"/>
       <c r="V843" s="3"/>
       <c r="W843" s="3"/>
+      <c r="X843" s="3"/>
     </row>
     <row r="844">
       <c r="A844" s="3"/>
@@ -21659,6 +22507,7 @@
       <c r="U844" s="3"/>
       <c r="V844" s="3"/>
       <c r="W844" s="3"/>
+      <c r="X844" s="3"/>
     </row>
     <row r="845">
       <c r="A845" s="3"/>
@@ -21684,6 +22533,7 @@
       <c r="U845" s="3"/>
       <c r="V845" s="3"/>
       <c r="W845" s="3"/>
+      <c r="X845" s="3"/>
     </row>
     <row r="846">
       <c r="A846" s="3"/>
@@ -21709,6 +22559,7 @@
       <c r="U846" s="3"/>
       <c r="V846" s="3"/>
       <c r="W846" s="3"/>
+      <c r="X846" s="3"/>
     </row>
     <row r="847">
       <c r="A847" s="3"/>
@@ -21734,6 +22585,7 @@
       <c r="U847" s="3"/>
       <c r="V847" s="3"/>
       <c r="W847" s="3"/>
+      <c r="X847" s="3"/>
     </row>
     <row r="848">
       <c r="A848" s="3"/>
@@ -21759,6 +22611,7 @@
       <c r="U848" s="3"/>
       <c r="V848" s="3"/>
       <c r="W848" s="3"/>
+      <c r="X848" s="3"/>
     </row>
     <row r="849">
       <c r="A849" s="3"/>
@@ -21784,6 +22637,7 @@
       <c r="U849" s="3"/>
       <c r="V849" s="3"/>
       <c r="W849" s="3"/>
+      <c r="X849" s="3"/>
     </row>
     <row r="850">
       <c r="A850" s="3"/>
@@ -21809,6 +22663,7 @@
       <c r="U850" s="3"/>
       <c r="V850" s="3"/>
       <c r="W850" s="3"/>
+      <c r="X850" s="3"/>
     </row>
     <row r="851">
       <c r="A851" s="3"/>
@@ -21834,6 +22689,7 @@
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="3"/>
+      <c r="X851" s="3"/>
     </row>
     <row r="852">
       <c r="A852" s="3"/>
@@ -21859,6 +22715,7 @@
       <c r="U852" s="3"/>
       <c r="V852" s="3"/>
       <c r="W852" s="3"/>
+      <c r="X852" s="3"/>
     </row>
     <row r="853">
       <c r="A853" s="3"/>
@@ -21884,6 +22741,7 @@
       <c r="U853" s="3"/>
       <c r="V853" s="3"/>
       <c r="W853" s="3"/>
+      <c r="X853" s="3"/>
     </row>
     <row r="854">
       <c r="A854" s="3"/>
@@ -21909,6 +22767,7 @@
       <c r="U854" s="3"/>
       <c r="V854" s="3"/>
       <c r="W854" s="3"/>
+      <c r="X854" s="3"/>
     </row>
     <row r="855">
       <c r="A855" s="3"/>
@@ -21934,6 +22793,7 @@
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="3"/>
+      <c r="X855" s="3"/>
     </row>
     <row r="856">
       <c r="A856" s="3"/>
@@ -21959,6 +22819,7 @@
       <c r="U856" s="3"/>
       <c r="V856" s="3"/>
       <c r="W856" s="3"/>
+      <c r="X856" s="3"/>
     </row>
     <row r="857">
       <c r="A857" s="3"/>
@@ -21984,6 +22845,7 @@
       <c r="U857" s="3"/>
       <c r="V857" s="3"/>
       <c r="W857" s="3"/>
+      <c r="X857" s="3"/>
     </row>
     <row r="858">
       <c r="A858" s="3"/>
@@ -22009,6 +22871,7 @@
       <c r="U858" s="3"/>
       <c r="V858" s="3"/>
       <c r="W858" s="3"/>
+      <c r="X858" s="3"/>
     </row>
     <row r="859">
       <c r="A859" s="3"/>
@@ -22034,6 +22897,7 @@
       <c r="U859" s="3"/>
       <c r="V859" s="3"/>
       <c r="W859" s="3"/>
+      <c r="X859" s="3"/>
     </row>
     <row r="860">
       <c r="A860" s="3"/>
@@ -22059,6 +22923,7 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="3"/>
+      <c r="X860" s="3"/>
     </row>
     <row r="861">
       <c r="A861" s="3"/>
@@ -22084,6 +22949,7 @@
       <c r="U861" s="3"/>
       <c r="V861" s="3"/>
       <c r="W861" s="3"/>
+      <c r="X861" s="3"/>
     </row>
     <row r="862">
       <c r="A862" s="3"/>
@@ -22109,6 +22975,7 @@
       <c r="U862" s="3"/>
       <c r="V862" s="3"/>
       <c r="W862" s="3"/>
+      <c r="X862" s="3"/>
     </row>
     <row r="863">
       <c r="A863" s="3"/>
@@ -22134,6 +23001,7 @@
       <c r="U863" s="3"/>
       <c r="V863" s="3"/>
       <c r="W863" s="3"/>
+      <c r="X863" s="3"/>
     </row>
     <row r="864">
       <c r="A864" s="3"/>
@@ -22159,6 +23027,7 @@
       <c r="U864" s="3"/>
       <c r="V864" s="3"/>
       <c r="W864" s="3"/>
+      <c r="X864" s="3"/>
     </row>
     <row r="865">
       <c r="A865" s="3"/>
@@ -22184,6 +23053,7 @@
       <c r="U865" s="3"/>
       <c r="V865" s="3"/>
       <c r="W865" s="3"/>
+      <c r="X865" s="3"/>
     </row>
     <row r="866">
       <c r="A866" s="3"/>
@@ -22209,6 +23079,7 @@
       <c r="U866" s="3"/>
       <c r="V866" s="3"/>
       <c r="W866" s="3"/>
+      <c r="X866" s="3"/>
     </row>
     <row r="867">
       <c r="A867" s="3"/>
@@ -22234,6 +23105,7 @@
       <c r="U867" s="3"/>
       <c r="V867" s="3"/>
       <c r="W867" s="3"/>
+      <c r="X867" s="3"/>
     </row>
     <row r="868">
       <c r="A868" s="3"/>
@@ -22259,6 +23131,7 @@
       <c r="U868" s="3"/>
       <c r="V868" s="3"/>
       <c r="W868" s="3"/>
+      <c r="X868" s="3"/>
     </row>
     <row r="869">
       <c r="A869" s="3"/>
@@ -22284,6 +23157,7 @@
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="3"/>
+      <c r="X869" s="3"/>
     </row>
     <row r="870">
       <c r="A870" s="3"/>
@@ -22309,6 +23183,7 @@
       <c r="U870" s="3"/>
       <c r="V870" s="3"/>
       <c r="W870" s="3"/>
+      <c r="X870" s="3"/>
     </row>
     <row r="871">
       <c r="A871" s="3"/>
@@ -22334,6 +23209,7 @@
       <c r="U871" s="3"/>
       <c r="V871" s="3"/>
       <c r="W871" s="3"/>
+      <c r="X871" s="3"/>
     </row>
     <row r="872">
       <c r="A872" s="3"/>
@@ -22359,6 +23235,7 @@
       <c r="U872" s="3"/>
       <c r="V872" s="3"/>
       <c r="W872" s="3"/>
+      <c r="X872" s="3"/>
     </row>
     <row r="873">
       <c r="A873" s="3"/>
@@ -22384,6 +23261,7 @@
       <c r="U873" s="3"/>
       <c r="V873" s="3"/>
       <c r="W873" s="3"/>
+      <c r="X873" s="3"/>
     </row>
     <row r="874">
       <c r="A874" s="3"/>
@@ -22409,6 +23287,7 @@
       <c r="U874" s="3"/>
       <c r="V874" s="3"/>
       <c r="W874" s="3"/>
+      <c r="X874" s="3"/>
     </row>
     <row r="875">
       <c r="A875" s="3"/>
@@ -22434,6 +23313,7 @@
       <c r="U875" s="3"/>
       <c r="V875" s="3"/>
       <c r="W875" s="3"/>
+      <c r="X875" s="3"/>
     </row>
     <row r="876">
       <c r="A876" s="3"/>
@@ -22459,6 +23339,7 @@
       <c r="U876" s="3"/>
       <c r="V876" s="3"/>
       <c r="W876" s="3"/>
+      <c r="X876" s="3"/>
     </row>
     <row r="877">
       <c r="A877" s="3"/>
@@ -22484,6 +23365,7 @@
       <c r="U877" s="3"/>
       <c r="V877" s="3"/>
       <c r="W877" s="3"/>
+      <c r="X877" s="3"/>
     </row>
     <row r="878">
       <c r="A878" s="3"/>
@@ -22509,6 +23391,7 @@
       <c r="U878" s="3"/>
       <c r="V878" s="3"/>
       <c r="W878" s="3"/>
+      <c r="X878" s="3"/>
     </row>
     <row r="879">
       <c r="A879" s="3"/>
@@ -22534,6 +23417,7 @@
       <c r="U879" s="3"/>
       <c r="V879" s="3"/>
       <c r="W879" s="3"/>
+      <c r="X879" s="3"/>
     </row>
     <row r="880">
       <c r="A880" s="3"/>
@@ -22559,6 +23443,7 @@
       <c r="U880" s="3"/>
       <c r="V880" s="3"/>
       <c r="W880" s="3"/>
+      <c r="X880" s="3"/>
     </row>
     <row r="881">
       <c r="A881" s="3"/>
@@ -22584,6 +23469,7 @@
       <c r="U881" s="3"/>
       <c r="V881" s="3"/>
       <c r="W881" s="3"/>
+      <c r="X881" s="3"/>
     </row>
     <row r="882">
       <c r="A882" s="3"/>
@@ -22609,6 +23495,7 @@
       <c r="U882" s="3"/>
       <c r="V882" s="3"/>
       <c r="W882" s="3"/>
+      <c r="X882" s="3"/>
     </row>
     <row r="883">
       <c r="A883" s="3"/>
@@ -22634,6 +23521,7 @@
       <c r="U883" s="3"/>
       <c r="V883" s="3"/>
       <c r="W883" s="3"/>
+      <c r="X883" s="3"/>
     </row>
     <row r="884">
       <c r="A884" s="3"/>
@@ -22659,6 +23547,7 @@
       <c r="U884" s="3"/>
       <c r="V884" s="3"/>
       <c r="W884" s="3"/>
+      <c r="X884" s="3"/>
     </row>
     <row r="885">
       <c r="A885" s="3"/>
@@ -22684,6 +23573,7 @@
       <c r="U885" s="3"/>
       <c r="V885" s="3"/>
       <c r="W885" s="3"/>
+      <c r="X885" s="3"/>
     </row>
     <row r="886">
       <c r="A886" s="3"/>
@@ -22709,6 +23599,7 @@
       <c r="U886" s="3"/>
       <c r="V886" s="3"/>
       <c r="W886" s="3"/>
+      <c r="X886" s="3"/>
     </row>
     <row r="887">
       <c r="A887" s="3"/>
@@ -22734,6 +23625,7 @@
       <c r="U887" s="3"/>
       <c r="V887" s="3"/>
       <c r="W887" s="3"/>
+      <c r="X887" s="3"/>
     </row>
     <row r="888">
       <c r="A888" s="3"/>
@@ -22759,6 +23651,7 @@
       <c r="U888" s="3"/>
       <c r="V888" s="3"/>
       <c r="W888" s="3"/>
+      <c r="X888" s="3"/>
     </row>
     <row r="889">
       <c r="A889" s="3"/>
@@ -22784,6 +23677,7 @@
       <c r="U889" s="3"/>
       <c r="V889" s="3"/>
       <c r="W889" s="3"/>
+      <c r="X889" s="3"/>
     </row>
     <row r="890">
       <c r="A890" s="3"/>
@@ -22809,6 +23703,7 @@
       <c r="U890" s="3"/>
       <c r="V890" s="3"/>
       <c r="W890" s="3"/>
+      <c r="X890" s="3"/>
     </row>
     <row r="891">
       <c r="A891" s="3"/>
@@ -22834,6 +23729,7 @@
       <c r="U891" s="3"/>
       <c r="V891" s="3"/>
       <c r="W891" s="3"/>
+      <c r="X891" s="3"/>
     </row>
     <row r="892">
       <c r="A892" s="3"/>
@@ -22859,6 +23755,7 @@
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="3"/>
+      <c r="X892" s="3"/>
     </row>
     <row r="893">
       <c r="A893" s="3"/>
@@ -22884,6 +23781,7 @@
       <c r="U893" s="3"/>
       <c r="V893" s="3"/>
       <c r="W893" s="3"/>
+      <c r="X893" s="3"/>
     </row>
     <row r="894">
       <c r="A894" s="3"/>
@@ -22909,6 +23807,7 @@
       <c r="U894" s="3"/>
       <c r="V894" s="3"/>
       <c r="W894" s="3"/>
+      <c r="X894" s="3"/>
     </row>
     <row r="895">
       <c r="A895" s="3"/>
@@ -22934,6 +23833,7 @@
       <c r="U895" s="3"/>
       <c r="V895" s="3"/>
       <c r="W895" s="3"/>
+      <c r="X895" s="3"/>
     </row>
     <row r="896">
       <c r="A896" s="3"/>
@@ -22959,6 +23859,7 @@
       <c r="U896" s="3"/>
       <c r="V896" s="3"/>
       <c r="W896" s="3"/>
+      <c r="X896" s="3"/>
     </row>
     <row r="897">
       <c r="A897" s="3"/>
@@ -22984,6 +23885,7 @@
       <c r="U897" s="3"/>
       <c r="V897" s="3"/>
       <c r="W897" s="3"/>
+      <c r="X897" s="3"/>
     </row>
     <row r="898">
       <c r="A898" s="3"/>
@@ -23009,6 +23911,7 @@
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="3"/>
+      <c r="X898" s="3"/>
     </row>
     <row r="899">
       <c r="A899" s="3"/>
@@ -23034,6 +23937,7 @@
       <c r="U899" s="3"/>
       <c r="V899" s="3"/>
       <c r="W899" s="3"/>
+      <c r="X899" s="3"/>
     </row>
     <row r="900">
       <c r="A900" s="3"/>
@@ -23059,6 +23963,7 @@
       <c r="U900" s="3"/>
       <c r="V900" s="3"/>
       <c r="W900" s="3"/>
+      <c r="X900" s="3"/>
     </row>
     <row r="901">
       <c r="A901" s="3"/>
@@ -23084,6 +23989,7 @@
       <c r="U901" s="3"/>
       <c r="V901" s="3"/>
       <c r="W901" s="3"/>
+      <c r="X901" s="3"/>
     </row>
     <row r="902">
       <c r="A902" s="3"/>
@@ -23109,6 +24015,7 @@
       <c r="U902" s="3"/>
       <c r="V902" s="3"/>
       <c r="W902" s="3"/>
+      <c r="X902" s="3"/>
     </row>
     <row r="903">
       <c r="A903" s="3"/>
@@ -23134,6 +24041,7 @@
       <c r="U903" s="3"/>
       <c r="V903" s="3"/>
       <c r="W903" s="3"/>
+      <c r="X903" s="3"/>
     </row>
     <row r="904">
       <c r="A904" s="3"/>
@@ -23159,6 +24067,7 @@
       <c r="U904" s="3"/>
       <c r="V904" s="3"/>
       <c r="W904" s="3"/>
+      <c r="X904" s="3"/>
     </row>
     <row r="905">
       <c r="A905" s="3"/>
@@ -23184,6 +24093,7 @@
       <c r="U905" s="3"/>
       <c r="V905" s="3"/>
       <c r="W905" s="3"/>
+      <c r="X905" s="3"/>
     </row>
     <row r="906">
       <c r="A906" s="3"/>
@@ -23209,6 +24119,7 @@
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="3"/>
+      <c r="X906" s="3"/>
     </row>
     <row r="907">
       <c r="A907" s="3"/>
@@ -23234,6 +24145,7 @@
       <c r="U907" s="3"/>
       <c r="V907" s="3"/>
       <c r="W907" s="3"/>
+      <c r="X907" s="3"/>
     </row>
     <row r="908">
       <c r="A908" s="3"/>
@@ -23259,6 +24171,7 @@
       <c r="U908" s="3"/>
       <c r="V908" s="3"/>
       <c r="W908" s="3"/>
+      <c r="X908" s="3"/>
     </row>
     <row r="909">
       <c r="A909" s="3"/>
@@ -23284,6 +24197,7 @@
       <c r="U909" s="3"/>
       <c r="V909" s="3"/>
       <c r="W909" s="3"/>
+      <c r="X909" s="3"/>
     </row>
     <row r="910">
       <c r="A910" s="3"/>
@@ -23309,6 +24223,7 @@
       <c r="U910" s="3"/>
       <c r="V910" s="3"/>
       <c r="W910" s="3"/>
+      <c r="X910" s="3"/>
     </row>
     <row r="911">
       <c r="A911" s="3"/>
@@ -23334,6 +24249,7 @@
       <c r="U911" s="3"/>
       <c r="V911" s="3"/>
       <c r="W911" s="3"/>
+      <c r="X911" s="3"/>
     </row>
     <row r="912">
       <c r="A912" s="3"/>
@@ -23359,6 +24275,7 @@
       <c r="U912" s="3"/>
       <c r="V912" s="3"/>
       <c r="W912" s="3"/>
+      <c r="X912" s="3"/>
     </row>
     <row r="913">
       <c r="A913" s="3"/>
@@ -23384,6 +24301,7 @@
       <c r="U913" s="3"/>
       <c r="V913" s="3"/>
       <c r="W913" s="3"/>
+      <c r="X913" s="3"/>
     </row>
     <row r="914">
       <c r="A914" s="3"/>
@@ -23409,6 +24327,7 @@
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="3"/>
+      <c r="X914" s="3"/>
     </row>
     <row r="915">
       <c r="A915" s="3"/>
@@ -23434,6 +24353,7 @@
       <c r="U915" s="3"/>
       <c r="V915" s="3"/>
       <c r="W915" s="3"/>
+      <c r="X915" s="3"/>
     </row>
     <row r="916">
       <c r="A916" s="3"/>
@@ -23459,6 +24379,7 @@
       <c r="U916" s="3"/>
       <c r="V916" s="3"/>
       <c r="W916" s="3"/>
+      <c r="X916" s="3"/>
     </row>
     <row r="917">
       <c r="A917" s="3"/>
@@ -23484,6 +24405,7 @@
       <c r="U917" s="3"/>
       <c r="V917" s="3"/>
       <c r="W917" s="3"/>
+      <c r="X917" s="3"/>
     </row>
     <row r="918">
       <c r="A918" s="3"/>
@@ -23509,6 +24431,7 @@
       <c r="U918" s="3"/>
       <c r="V918" s="3"/>
       <c r="W918" s="3"/>
+      <c r="X918" s="3"/>
     </row>
     <row r="919">
       <c r="A919" s="3"/>
@@ -23534,6 +24457,7 @@
       <c r="U919" s="3"/>
       <c r="V919" s="3"/>
       <c r="W919" s="3"/>
+      <c r="X919" s="3"/>
     </row>
     <row r="920">
       <c r="A920" s="3"/>
@@ -23559,6 +24483,7 @@
       <c r="U920" s="3"/>
       <c r="V920" s="3"/>
       <c r="W920" s="3"/>
+      <c r="X920" s="3"/>
     </row>
     <row r="921">
       <c r="A921" s="3"/>
@@ -23584,6 +24509,7 @@
       <c r="U921" s="3"/>
       <c r="V921" s="3"/>
       <c r="W921" s="3"/>
+      <c r="X921" s="3"/>
     </row>
     <row r="922">
       <c r="A922" s="3"/>
@@ -23609,6 +24535,7 @@
       <c r="U922" s="3"/>
       <c r="V922" s="3"/>
       <c r="W922" s="3"/>
+      <c r="X922" s="3"/>
     </row>
     <row r="923">
       <c r="A923" s="3"/>
@@ -23634,6 +24561,7 @@
       <c r="U923" s="3"/>
       <c r="V923" s="3"/>
       <c r="W923" s="3"/>
+      <c r="X923" s="3"/>
     </row>
     <row r="924">
       <c r="A924" s="3"/>
@@ -23659,6 +24587,7 @@
       <c r="U924" s="3"/>
       <c r="V924" s="3"/>
       <c r="W924" s="3"/>
+      <c r="X924" s="3"/>
     </row>
     <row r="925">
       <c r="A925" s="3"/>
@@ -23684,6 +24613,7 @@
       <c r="U925" s="3"/>
       <c r="V925" s="3"/>
       <c r="W925" s="3"/>
+      <c r="X925" s="3"/>
     </row>
     <row r="926">
       <c r="A926" s="3"/>
@@ -23709,6 +24639,7 @@
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="3"/>
+      <c r="X926" s="3"/>
     </row>
     <row r="927">
       <c r="A927" s="3"/>
@@ -23734,6 +24665,7 @@
       <c r="U927" s="3"/>
       <c r="V927" s="3"/>
       <c r="W927" s="3"/>
+      <c r="X927" s="3"/>
     </row>
     <row r="928">
       <c r="A928" s="3"/>
@@ -23759,6 +24691,7 @@
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="3"/>
+      <c r="X928" s="3"/>
     </row>
     <row r="929">
       <c r="A929" s="3"/>
@@ -23784,6 +24717,7 @@
       <c r="U929" s="3"/>
       <c r="V929" s="3"/>
       <c r="W929" s="3"/>
+      <c r="X929" s="3"/>
     </row>
     <row r="930">
       <c r="A930" s="3"/>
@@ -23809,6 +24743,7 @@
       <c r="U930" s="3"/>
       <c r="V930" s="3"/>
       <c r="W930" s="3"/>
+      <c r="X930" s="3"/>
     </row>
     <row r="931">
       <c r="A931" s="3"/>
@@ -23834,6 +24769,7 @@
       <c r="U931" s="3"/>
       <c r="V931" s="3"/>
       <c r="W931" s="3"/>
+      <c r="X931" s="3"/>
     </row>
     <row r="932">
       <c r="A932" s="3"/>
@@ -23859,6 +24795,7 @@
       <c r="U932" s="3"/>
       <c r="V932" s="3"/>
       <c r="W932" s="3"/>
+      <c r="X932" s="3"/>
     </row>
     <row r="933">
       <c r="A933" s="3"/>
@@ -23884,6 +24821,7 @@
       <c r="U933" s="3"/>
       <c r="V933" s="3"/>
       <c r="W933" s="3"/>
+      <c r="X933" s="3"/>
     </row>
     <row r="934">
       <c r="A934" s="3"/>
@@ -23909,6 +24847,7 @@
       <c r="U934" s="3"/>
       <c r="V934" s="3"/>
       <c r="W934" s="3"/>
+      <c r="X934" s="3"/>
     </row>
     <row r="935">
       <c r="A935" s="3"/>
@@ -23934,6 +24873,7 @@
       <c r="U935" s="3"/>
       <c r="V935" s="3"/>
       <c r="W935" s="3"/>
+      <c r="X935" s="3"/>
     </row>
     <row r="936">
       <c r="A936" s="3"/>
@@ -23959,6 +24899,7 @@
       <c r="U936" s="3"/>
       <c r="V936" s="3"/>
       <c r="W936" s="3"/>
+      <c r="X936" s="3"/>
     </row>
     <row r="937">
       <c r="A937" s="3"/>
@@ -23984,6 +24925,7 @@
       <c r="U937" s="3"/>
       <c r="V937" s="3"/>
       <c r="W937" s="3"/>
+      <c r="X937" s="3"/>
     </row>
     <row r="938">
       <c r="A938" s="3"/>
@@ -24009,6 +24951,7 @@
       <c r="U938" s="3"/>
       <c r="V938" s="3"/>
       <c r="W938" s="3"/>
+      <c r="X938" s="3"/>
     </row>
     <row r="939">
       <c r="A939" s="3"/>
@@ -24034,6 +24977,7 @@
       <c r="U939" s="3"/>
       <c r="V939" s="3"/>
       <c r="W939" s="3"/>
+      <c r="X939" s="3"/>
     </row>
     <row r="940">
       <c r="A940" s="3"/>
@@ -24059,6 +25003,7 @@
       <c r="U940" s="3"/>
       <c r="V940" s="3"/>
       <c r="W940" s="3"/>
+      <c r="X940" s="3"/>
     </row>
     <row r="941">
       <c r="A941" s="3"/>
@@ -24084,6 +25029,7 @@
       <c r="U941" s="3"/>
       <c r="V941" s="3"/>
       <c r="W941" s="3"/>
+      <c r="X941" s="3"/>
     </row>
     <row r="942">
       <c r="A942" s="3"/>
@@ -24109,6 +25055,7 @@
       <c r="U942" s="3"/>
       <c r="V942" s="3"/>
       <c r="W942" s="3"/>
+      <c r="X942" s="3"/>
     </row>
     <row r="943">
       <c r="A943" s="3"/>
@@ -24134,6 +25081,7 @@
       <c r="U943" s="3"/>
       <c r="V943" s="3"/>
       <c r="W943" s="3"/>
+      <c r="X943" s="3"/>
     </row>
     <row r="944">
       <c r="A944" s="3"/>
@@ -24159,6 +25107,7 @@
       <c r="U944" s="3"/>
       <c r="V944" s="3"/>
       <c r="W944" s="3"/>
+      <c r="X944" s="3"/>
     </row>
     <row r="945">
       <c r="A945" s="3"/>
@@ -24184,6 +25133,7 @@
       <c r="U945" s="3"/>
       <c r="V945" s="3"/>
       <c r="W945" s="3"/>
+      <c r="X945" s="3"/>
     </row>
     <row r="946">
       <c r="A946" s="3"/>
@@ -24209,6 +25159,7 @@
       <c r="U946" s="3"/>
       <c r="V946" s="3"/>
       <c r="W946" s="3"/>
+      <c r="X946" s="3"/>
     </row>
     <row r="947">
       <c r="A947" s="3"/>
@@ -24234,6 +25185,7 @@
       <c r="U947" s="3"/>
       <c r="V947" s="3"/>
       <c r="W947" s="3"/>
+      <c r="X947" s="3"/>
     </row>
     <row r="948">
       <c r="A948" s="3"/>
@@ -24259,6 +25211,7 @@
       <c r="U948" s="3"/>
       <c r="V948" s="3"/>
       <c r="W948" s="3"/>
+      <c r="X948" s="3"/>
     </row>
     <row r="949">
       <c r="A949" s="3"/>
@@ -24284,6 +25237,7 @@
       <c r="U949" s="3"/>
       <c r="V949" s="3"/>
       <c r="W949" s="3"/>
+      <c r="X949" s="3"/>
     </row>
     <row r="950">
       <c r="A950" s="3"/>
@@ -24309,6 +25263,7 @@
       <c r="U950" s="3"/>
       <c r="V950" s="3"/>
       <c r="W950" s="3"/>
+      <c r="X950" s="3"/>
     </row>
     <row r="951">
       <c r="A951" s="3"/>
@@ -24334,6 +25289,7 @@
       <c r="U951" s="3"/>
       <c r="V951" s="3"/>
       <c r="W951" s="3"/>
+      <c r="X951" s="3"/>
     </row>
     <row r="952">
       <c r="A952" s="3"/>
@@ -24359,6 +25315,7 @@
       <c r="U952" s="3"/>
       <c r="V952" s="3"/>
       <c r="W952" s="3"/>
+      <c r="X952" s="3"/>
     </row>
     <row r="953">
       <c r="A953" s="3"/>
@@ -24384,6 +25341,7 @@
       <c r="U953" s="3"/>
       <c r="V953" s="3"/>
       <c r="W953" s="3"/>
+      <c r="X953" s="3"/>
     </row>
     <row r="954">
       <c r="A954" s="3"/>
@@ -24409,6 +25367,7 @@
       <c r="U954" s="3"/>
       <c r="V954" s="3"/>
       <c r="W954" s="3"/>
+      <c r="X954" s="3"/>
     </row>
     <row r="955">
       <c r="A955" s="3"/>
@@ -24434,6 +25393,7 @@
       <c r="U955" s="3"/>
       <c r="V955" s="3"/>
       <c r="W955" s="3"/>
+      <c r="X955" s="3"/>
     </row>
     <row r="956">
       <c r="A956" s="3"/>
@@ -24459,6 +25419,7 @@
       <c r="U956" s="3"/>
       <c r="V956" s="3"/>
       <c r="W956" s="3"/>
+      <c r="X956" s="3"/>
     </row>
     <row r="957">
       <c r="A957" s="3"/>
@@ -24484,6 +25445,7 @@
       <c r="U957" s="3"/>
       <c r="V957" s="3"/>
       <c r="W957" s="3"/>
+      <c r="X957" s="3"/>
     </row>
     <row r="958">
       <c r="A958" s="3"/>
@@ -24509,6 +25471,7 @@
       <c r="U958" s="3"/>
       <c r="V958" s="3"/>
       <c r="W958" s="3"/>
+      <c r="X958" s="3"/>
     </row>
     <row r="959">
       <c r="A959" s="3"/>
@@ -24534,6 +25497,7 @@
       <c r="U959" s="3"/>
       <c r="V959" s="3"/>
       <c r="W959" s="3"/>
+      <c r="X959" s="3"/>
     </row>
     <row r="960">
       <c r="A960" s="3"/>
@@ -24559,6 +25523,7 @@
       <c r="U960" s="3"/>
       <c r="V960" s="3"/>
       <c r="W960" s="3"/>
+      <c r="X960" s="3"/>
     </row>
     <row r="961">
       <c r="A961" s="3"/>
@@ -24584,6 +25549,7 @@
       <c r="U961" s="3"/>
       <c r="V961" s="3"/>
       <c r="W961" s="3"/>
+      <c r="X961" s="3"/>
     </row>
     <row r="962">
       <c r="A962" s="3"/>
@@ -24609,6 +25575,7 @@
       <c r="U962" s="3"/>
       <c r="V962" s="3"/>
       <c r="W962" s="3"/>
+      <c r="X962" s="3"/>
     </row>
     <row r="963">
       <c r="A963" s="3"/>
@@ -24634,6 +25601,7 @@
       <c r="U963" s="3"/>
       <c r="V963" s="3"/>
       <c r="W963" s="3"/>
+      <c r="X963" s="3"/>
     </row>
     <row r="964">
       <c r="A964" s="3"/>
@@ -24659,6 +25627,7 @@
       <c r="U964" s="3"/>
       <c r="V964" s="3"/>
       <c r="W964" s="3"/>
+      <c r="X964" s="3"/>
     </row>
     <row r="965">
       <c r="A965" s="3"/>
@@ -24684,6 +25653,7 @@
       <c r="U965" s="3"/>
       <c r="V965" s="3"/>
       <c r="W965" s="3"/>
+      <c r="X965" s="3"/>
     </row>
     <row r="966">
       <c r="A966" s="3"/>
@@ -24709,6 +25679,7 @@
       <c r="U966" s="3"/>
       <c r="V966" s="3"/>
       <c r="W966" s="3"/>
+      <c r="X966" s="3"/>
     </row>
     <row r="967">
       <c r="A967" s="3"/>
@@ -24734,6 +25705,7 @@
       <c r="U967" s="3"/>
       <c r="V967" s="3"/>
       <c r="W967" s="3"/>
+      <c r="X967" s="3"/>
     </row>
     <row r="968">
       <c r="A968" s="3"/>
@@ -24759,6 +25731,7 @@
       <c r="U968" s="3"/>
       <c r="V968" s="3"/>
       <c r="W968" s="3"/>
+      <c r="X968" s="3"/>
     </row>
     <row r="969">
       <c r="A969" s="3"/>
@@ -24784,6 +25757,7 @@
       <c r="U969" s="3"/>
       <c r="V969" s="3"/>
       <c r="W969" s="3"/>
+      <c r="X969" s="3"/>
     </row>
     <row r="970">
       <c r="A970" s="3"/>
@@ -24809,6 +25783,7 @@
       <c r="U970" s="3"/>
       <c r="V970" s="3"/>
       <c r="W970" s="3"/>
+      <c r="X970" s="3"/>
     </row>
     <row r="971">
       <c r="A971" s="3"/>
@@ -24834,6 +25809,7 @@
       <c r="U971" s="3"/>
       <c r="V971" s="3"/>
       <c r="W971" s="3"/>
+      <c r="X971" s="3"/>
     </row>
     <row r="972">
       <c r="A972" s="3"/>
@@ -24859,6 +25835,7 @@
       <c r="U972" s="3"/>
       <c r="V972" s="3"/>
       <c r="W972" s="3"/>
+      <c r="X972" s="3"/>
     </row>
     <row r="973">
       <c r="A973" s="3"/>
@@ -24884,6 +25861,7 @@
       <c r="U973" s="3"/>
       <c r="V973" s="3"/>
       <c r="W973" s="3"/>
+      <c r="X973" s="3"/>
     </row>
     <row r="974">
       <c r="A974" s="3"/>
@@ -24909,6 +25887,7 @@
       <c r="U974" s="3"/>
       <c r="V974" s="3"/>
       <c r="W974" s="3"/>
+      <c r="X974" s="3"/>
     </row>
     <row r="975">
       <c r="A975" s="3"/>
@@ -24934,6 +25913,7 @@
       <c r="U975" s="3"/>
       <c r="V975" s="3"/>
       <c r="W975" s="3"/>
+      <c r="X975" s="3"/>
     </row>
     <row r="976">
       <c r="A976" s="3"/>
@@ -24959,6 +25939,7 @@
       <c r="U976" s="3"/>
       <c r="V976" s="3"/>
       <c r="W976" s="3"/>
+      <c r="X976" s="3"/>
     </row>
     <row r="977">
       <c r="A977" s="3"/>
@@ -24984,6 +25965,7 @@
       <c r="U977" s="3"/>
       <c r="V977" s="3"/>
       <c r="W977" s="3"/>
+      <c r="X977" s="3"/>
     </row>
     <row r="978">
       <c r="A978" s="3"/>
@@ -25009,6 +25991,7 @@
       <c r="U978" s="3"/>
       <c r="V978" s="3"/>
       <c r="W978" s="3"/>
+      <c r="X978" s="3"/>
     </row>
     <row r="979">
       <c r="A979" s="3"/>
@@ -25034,6 +26017,7 @@
       <c r="U979" s="3"/>
       <c r="V979" s="3"/>
       <c r="W979" s="3"/>
+      <c r="X979" s="3"/>
     </row>
     <row r="980">
       <c r="A980" s="3"/>
@@ -25059,6 +26043,7 @@
       <c r="U980" s="3"/>
       <c r="V980" s="3"/>
       <c r="W980" s="3"/>
+      <c r="X980" s="3"/>
     </row>
     <row r="981">
       <c r="A981" s="3"/>
@@ -25084,6 +26069,7 @@
       <c r="U981" s="3"/>
       <c r="V981" s="3"/>
       <c r="W981" s="3"/>
+      <c r="X981" s="3"/>
     </row>
     <row r="982">
       <c r="A982" s="3"/>
@@ -25109,6 +26095,7 @@
       <c r="U982" s="3"/>
       <c r="V982" s="3"/>
       <c r="W982" s="3"/>
+      <c r="X982" s="3"/>
     </row>
     <row r="983">
       <c r="A983" s="3"/>
@@ -25134,6 +26121,7 @@
       <c r="U983" s="3"/>
       <c r="V983" s="3"/>
       <c r="W983" s="3"/>
+      <c r="X983" s="3"/>
     </row>
     <row r="984">
       <c r="A984" s="3"/>
@@ -25159,6 +26147,7 @@
       <c r="U984" s="3"/>
       <c r="V984" s="3"/>
       <c r="W984" s="3"/>
+      <c r="X984" s="3"/>
     </row>
     <row r="985">
       <c r="A985" s="3"/>
@@ -25184,6 +26173,7 @@
       <c r="U985" s="3"/>
       <c r="V985" s="3"/>
       <c r="W985" s="3"/>
+      <c r="X985" s="3"/>
     </row>
     <row r="986">
       <c r="A986" s="3"/>
@@ -25209,6 +26199,7 @@
       <c r="U986" s="3"/>
       <c r="V986" s="3"/>
       <c r="W986" s="3"/>
+      <c r="X986" s="3"/>
     </row>
     <row r="987">
       <c r="A987" s="3"/>
@@ -25234,6 +26225,7 @@
       <c r="U987" s="3"/>
       <c r="V987" s="3"/>
       <c r="W987" s="3"/>
+      <c r="X987" s="3"/>
     </row>
     <row r="988">
       <c r="A988" s="3"/>
@@ -25259,6 +26251,7 @@
       <c r="U988" s="3"/>
       <c r="V988" s="3"/>
       <c r="W988" s="3"/>
+      <c r="X988" s="3"/>
     </row>
     <row r="989">
       <c r="A989" s="3"/>
@@ -25284,6 +26277,7 @@
       <c r="U989" s="3"/>
       <c r="V989" s="3"/>
       <c r="W989" s="3"/>
+      <c r="X989" s="3"/>
     </row>
     <row r="990">
       <c r="A990" s="3"/>
@@ -25309,6 +26303,7 @@
       <c r="U990" s="3"/>
       <c r="V990" s="3"/>
       <c r="W990" s="3"/>
+      <c r="X990" s="3"/>
     </row>
     <row r="991">
       <c r="A991" s="3"/>
@@ -25334,6 +26329,7 @@
       <c r="U991" s="3"/>
       <c r="V991" s="3"/>
       <c r="W991" s="3"/>
+      <c r="X991" s="3"/>
     </row>
     <row r="992">
       <c r="A992" s="3"/>
@@ -25359,6 +26355,7 @@
       <c r="U992" s="3"/>
       <c r="V992" s="3"/>
       <c r="W992" s="3"/>
+      <c r="X992" s="3"/>
     </row>
     <row r="993">
       <c r="A993" s="3"/>
@@ -25384,6 +26381,7 @@
       <c r="U993" s="3"/>
       <c r="V993" s="3"/>
       <c r="W993" s="3"/>
+      <c r="X993" s="3"/>
     </row>
     <row r="994">
       <c r="A994" s="3"/>
@@ -25409,6 +26407,7 @@
       <c r="U994" s="3"/>
       <c r="V994" s="3"/>
       <c r="W994" s="3"/>
+      <c r="X994" s="3"/>
     </row>
     <row r="995">
       <c r="A995" s="3"/>
@@ -25434,6 +26433,7 @@
       <c r="U995" s="3"/>
       <c r="V995" s="3"/>
       <c r="W995" s="3"/>
+      <c r="X995" s="3"/>
     </row>
     <row r="996">
       <c r="A996" s="3"/>
@@ -25459,6 +26459,7 @@
       <c r="U996" s="3"/>
       <c r="V996" s="3"/>
       <c r="W996" s="3"/>
+      <c r="X996" s="3"/>
     </row>
     <row r="997">
       <c r="A997" s="3"/>
@@ -25484,6 +26485,7 @@
       <c r="U997" s="3"/>
       <c r="V997" s="3"/>
       <c r="W997" s="3"/>
+      <c r="X997" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -25492,9 +26494,9 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="C8:N8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
